--- a/draft_invoices_adults.xlsx
+++ b/draft_invoices_adults.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +477,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INV-10161</t>
+          <t>INV-12585</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -481,36 +485,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2023-05-26</t>
-        </is>
+      <c r="C2" s="2" t="n">
+        <v>45765</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Calista NYC</t>
+          <t>LULU'S</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5534 B</t>
+          <t>201492</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$396.0</t>
+          <t>$4959.0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SHOOTING STARS JOGGER SET WHITE, ONE OF THE BOYS: S/S DISTRESSED CROP TOP OFF-WHITE</t>
+          <t>JOSHUA TREE VINTAGE TEE IVORY, JOSHUA TREE VINTAGE TEE IVORY, JOSHUA TREE VINTAGE TEE IVORY, JOSHUA TREE VINTAGE TEE IVORY, JOSHUA TREE VINTAGE TEE IVORY</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INV-10168</t>
+          <t>INV-12624</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -518,36 +520,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2023-06-15</t>
-        </is>
+      <c r="C3" s="2" t="n">
+        <v>45622</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>MADIDA</t>
+          <t>ROLLING RACK BOUTIQUE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5570-C</t>
+          <t>ROLLINGRACK-JANCAMIS</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$200.0</t>
+          <t>$1296.0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BIKE WEEK CROP BLACK</t>
+          <t>CAMISOLE TOP-SMILEY EMOJI BLACK, CAMISOLE TOP-HEART EMOJI BABY PINK, CAMISOLE TOP-BOW EMOJI NAVY, CAMISOLE TOP-CHERRY EMOJI RED</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INV-10293</t>
+          <t>INV-12625</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -555,36 +555,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2023-04-04</t>
-        </is>
+      <c r="C4" s="2" t="n">
+        <v>45622</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SHAMBLES BOUTIQUE</t>
+          <t>Eat Your Spinach</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SHAM-4423-B</t>
+          <t>EATYRSPIN-JANCAMIS</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$80.0</t>
+          <t>$216.0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>TOM PETTY ANYTHING THAT ROCK TEE SALMON</t>
+          <t>CAMISOLE TOP-SMILEY EMOJI BLACK, CAMISOLE TOP-PEACE SIGN EMOJI BONE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INV-10295</t>
+          <t>INV-12635</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -592,36 +590,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2023-04-06</t>
-        </is>
+      <c r="C5" s="2" t="n">
+        <v>45632</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>KELLY SPALDING</t>
+          <t>HAVANA JEANS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4641-C</t>
+          <t>HAVANA-CAMISJAN</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$120.0</t>
+          <t>$1080.0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ROCK N ROLL DISTRESSED TEE BLK</t>
+          <t>CAMISOLE TOP- EMOJI SMILEY BLACK, CAMISOLE TOP-BOW EMOJI NAVY, CAMISOLE TOP-CHERRY EMOJI RED, CAMISOLE TOP-EMOJI HEART BABY PINK, CAMISOLE TOP-EMOJI PEACE SIGN BONE</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INV-10296</t>
+          <t>INV-12639</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -629,36 +625,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2023-04-06</t>
-        </is>
+      <c r="C6" s="2" t="n">
+        <v>45636</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FOOTLOOSE</t>
+          <t>CARUSO CARUSO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FL-PP-121 B</t>
+          <t>CARUSO-JANCAMIS</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$120.0</t>
+          <t>$216.0</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>JANIS HEMISPHERE CROP WHITE</t>
+          <t>CAMISOLE TOP-CHERRY EMOJI RED, CAMISOLE TOP-EMOJI HEART BABY PINK</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INV-10308</t>
+          <t>INV-12657</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -666,36 +660,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2023-04-12</t>
-        </is>
+      <c r="C7" s="2" t="n">
+        <v>45779</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FINLEY'S BOUTIQUE</t>
+          <t>LULU'S</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUNSET DREAM RPLCMENTS </t>
+          <t>206685</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$0.0</t>
+          <t>$8100.0</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">SUNSET DREAM FESTIVAL CROP OFF WHITE, REPLACEMENTS FOR DAMAGES SENT ON INV 9807...THEY RETURNED ALL OF THEM BACK TO US.... </t>
+          <t>CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK, CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK, CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK, CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK, CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INV-10311</t>
+          <t>INV-12658</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -703,36 +695,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2023-04-12</t>
-        </is>
+      <c r="C8" s="2" t="n">
+        <v>45779</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JUST BETWEEN FRIENDS</t>
+          <t>LULU'S</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>JBF-411 B</t>
+          <t>206686</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$110.0</t>
+          <t>$6763.5</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>BROOKLYN NEW YORK CROP OFF BLACK</t>
+          <t>CASSETTE TAPE MUSCLE OFF-WHITE, CASSETTE TAPE MUSCLE OFF-WHITE, CASSETTE TAPE MUSCLE OFF-WHITE, CASSETTE TAPE MUSCLE OFF-WHITE, CASSETTE TAPE MUSCLE OFF-WHITE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INV-10313</t>
+          <t>INV-12659</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -740,36 +730,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2023-04-12</t>
-        </is>
+      <c r="C9" s="2" t="n">
+        <v>45666</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DENNY'S CHILDRENSWEAR</t>
+          <t>LULU'S</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>47452</t>
+          <t>206687</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$897.6</t>
+          <t>$5400.0</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ELVIS MONTAGE CROP BLK</t>
+          <t>CASSETTE TAPE MUSCLE OFF-WHITE, CASSETTE TAPE MUSCLE OFF-WHITE, CASSETTE TAPE MUSCLE OFF-WHITE, CASSETTE TAPE MUSCLE OFF-WHITE, CASSETTE TAPE MUSCLE OFF-WHITE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INV-10314</t>
+          <t>INV-12661</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -777,36 +765,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2023-04-12</t>
-        </is>
+      <c r="C10" s="2" t="n">
+        <v>45666</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BOUT'KE LTD</t>
+          <t>LULU'S</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>BOUTKE-411 B</t>
+          <t>206690</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$122.4</t>
+          <t>$4500.0</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>BROOKLYN NEW YORK CROP OFF BLACK</t>
+          <t>BLONDIE CIRCLE BAND CROP WHITE, BLONDIE CIRCLE BAND CROP WHITE, BLONDIE CIRCLE BAND CROP WHITE, BLONDIE CIRCLE BAND CROP WHITE, BLONDIE CIRCLE BAND CROP WHITE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INV-10318</t>
+          <t>INV-12666</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -814,36 +800,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2023-04-14</t>
-        </is>
+      <c r="C11" s="2" t="n">
+        <v>45666</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TUNI</t>
+          <t>NOBEL RAGS</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TUNI-41423-B</t>
+          <t>NOBELRAGS-SURFJAN-B</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$132.0</t>
+          <t>$324.0</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>TOM PETTY ANYTHING THAT ROCK TEE SALMON</t>
+          <t>CORONA PARROT BOYFRIEND CROP PEACH, PACIFICO SURF CROP PEACH, MODELO BOTTLE TEE WHITE, BOB DYLAN ROLLING STONES UNISEX TEE WHITE, CRANBERRIES ARGUE TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INV-10323</t>
+          <t>INV-12667</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -851,36 +835,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2023-04-17</t>
-        </is>
+      <c r="C12" s="2" t="n">
+        <v>45666</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>THESE THREE BOUTIQUE</t>
+          <t>NOBEL RAGS</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4633 C</t>
+          <t>NOBELRAGS-SURFJAN-C</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>$1380.0</t>
+          <t>$256.0</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ASPEN SKI CLUB PULLOVER GREY, SOHO TENNIS CROP BLUE</t>
+          <t>JOAN JETT WINGS BOYFRIEND CROP TIE DYE BLUE MULTI, WOODSTOCK POSTER CROP OFF BLACK, SONNY CHER BEAT GOES ON  CROP H.GREY, WEEZER CALIFORNIA TEE BLACK</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INV-10324</t>
+          <t>INV-12668</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -888,36 +870,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2023-04-17</t>
-        </is>
+      <c r="C13" s="2" t="n">
+        <v>45666</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>APRICOT LANE ATTN: RACHEL KIRGESNER</t>
+          <t>NOBEL RAGS</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PRINCE PETER COLLECTION SAMPLES</t>
+          <t>NOBELRAGS-SURFJAN-D</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>$0.0</t>
+          <t>$196.0</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>BRAND: PRINCE PETER COLLECTION ASSORTED SAMPLES FOR APRICOT LANE MAGIC NASHVILLE SHOW</t>
+          <t>BOB DYLAN 66 UNISEX TEE WHITE, SUNSET DREAM FESTIVAL CROP OFF WHITE, SANTANA RAINBOW SUPERNATURAL TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INV-10330</t>
+          <t>INV-12683</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -925,36 +905,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2023-04-17</t>
-        </is>
+      <c r="C14" s="2" t="n">
+        <v>45677</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LEMON CHIC-LEMON CHIC INTERNATIONAL</t>
+          <t>APRICOT LANE CONROE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5614-D</t>
+          <t>AL-CONROE-DLJAN-B</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>$168.0</t>
+          <t>$96.0</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>BROOKLYN STRIPES CROP NAVY</t>
+          <t>PACIFICO SURF BURNOUT TEE DARK BLUE BURNOUT</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INV-10333</t>
+          <t>INV-12721</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -962,36 +940,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2023-04-17</t>
-        </is>
+      <c r="C15" s="2" t="n">
+        <v>45680</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>WALL STREET WESTERN</t>
+          <t>APRICOT LANE CELINA TX</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5596-C</t>
+          <t>AL-CELINA-DLJAN B</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>$180.0</t>
+          <t>$96.0</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>SONNY &amp; CHER GOT YOU BABE TEE WHITE</t>
+          <t>DIXIELAND DELIGHT CROP BLACK</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INV-10347</t>
+          <t>INV-12722</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -999,36 +975,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2023-05-16</t>
-        </is>
+      <c r="C16" s="2" t="n">
+        <v>45680</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LAF COLLECTIBLES</t>
+          <t>REFINED GREY</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5667-D</t>
+          <t>REFINEDGREY-DALJAN B</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>$180.0</t>
+          <t>$112.0</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>RED ROCK CANYON CROP PINK</t>
+          <t>JANIS JOPLIN FAIRY TEE OFF BLACK</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INV-10360</t>
+          <t>INV-12745</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1036,36 +1010,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2023-04-25</t>
-        </is>
+      <c r="C17" s="2" t="n">
+        <v>45683</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AUGUST LANE CO / NICOLE COUTO RYAN</t>
+          <t>GARAGE BOUTIQUE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>poison consignment 4/24</t>
+          <t>GARAGE-DALJAN-KIDS-B</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>$60.0</t>
+          <t>$804.0</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve">POISON CAT TEE BLACK, shipped 2 S and M1 instead of 3XL's on inv 10270.....shipped the 3XL's 4.26...buyer is keeping the 3 unit miships on consignment </t>
+          <t>YEE HAW COWBOY BOOT CROP KIDS OFF WHITE, RODEO QUEEN CROP KIDS OFF WHITE, COWGIRL CLUB STARS CROP KIDS BLACK, YEE HAW HORSESHOE CROP KIDS OFF WHITE, COWBOY CLUB HAT CROP KIDS BLUE, LUCKY HORSESHOE CROP KIDS , DESERT DREAMS CACTUS CROP KIDS BLACK, LUCKY CHARM HORSESHOE CROP KIDS WHITE, AMERICAN COWGIRL CROP KIDS BLACK</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INV-10362</t>
+          <t>INV-12746</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1073,36 +1045,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2023-04-26</t>
-        </is>
+      <c r="C18" s="2" t="n">
+        <v>45683</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>BINJARA TRADERS INC.</t>
+          <t>GARAGE BOUTIQUE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>BINJ-4323-B RESHIP</t>
+          <t>GARAGE-DALJAN-JUNIORS-B</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>$0.0</t>
+          <t>$672.0</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>ELVIS KING OF ROCK TEE WHITE</t>
+          <t>AMERICAN COWGIRL CROP BLACK, LUCKY CHARM HORSESHOE CROP WHITE, COWGIRL CLUB HAT CROP BLUE, YEE HAW HORSESHOE CROP OFF WHITE, COWGIRL CLUB STARS CROP BLACK, RODEO QUEEN CROP OFF WHITE, YEE HAW COWBOY BOOT CROP OFF WHITE</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INV-10363</t>
+          <t>INV-12750</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1110,36 +1080,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2023-04-26</t>
-        </is>
+      <c r="C19" s="2" t="n">
+        <v>45770</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AUGUST LANE CO / NICOLE COUTO RYAN</t>
+          <t>HAVANA JEANS</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5679-B RESHIP</t>
+          <t>NYLA-HAVANA-004</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>$0.0</t>
+          <t>$440.0</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>POISON CAT TEE BLACK</t>
+          <t>SUNSET DREAM FESTIVAL CROP OFF WHITE, RICK SPRINGFIELD JESSIE GIRL SUNGLASSES TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INV-10371</t>
+          <t>INV-12755</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1147,36 +1115,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2023-04-29</t>
-        </is>
+      <c r="C20" s="2" t="n">
+        <v>45686</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CARUSO CARUSO</t>
+          <t>HANGER BOUTIQUE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5637-D</t>
+          <t>HANGER-SURFJAN-RESHIP</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>$524.0</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>SOHO TENNIS CROP BLUE, BOB DYLAN ROLLING STONE PULLOVER GREY, SANTA BARBARA COLLEGE PULLOVER H.GREY</t>
+          <t xml:space="preserve">BOWIE 74 BURNOUT CROP ELECTRIC BLUE, CHEAP TRICK ROSE CHECK CROP WHITE, **THIS IS A RESHIP...BUYER RETURNED ITEMS THAT WERE MISSHIPPED. SO THIS IS AN EVEN SWAP. </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INV-10435</t>
+          <t>INV-12756</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1184,36 +1150,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2023-05-01</t>
-        </is>
+      <c r="C21" s="2" t="n">
+        <v>45688</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MANDI DAVIS</t>
+          <t>FLYING POINT SURF</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4245</t>
+          <t>NYLA-FLYPNTSRF-009</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>$336.0</t>
+          <t>$1600.0</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>SOLID DISTRESSED CROP OFF-BLACK, SOLID DISTRESSED CROP WHITE</t>
+          <t>SONNY &amp; CHER BEAT GOES ON CROP H.GREY, BOWIE 74 BURNOUT CROP ELECTRIC BLUE, EAST COAST LOVE PULLOVER CROPPED , USA DREAM TEAM TEE OFF WHITE, HAMPTONS VARSITY SAIL CROP WHITE, MODELO BOTTLE BOYFRIEND CROP WHITE, APERTIVO GRAPHIC (LEMONADE) CROP OFF-WHITE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INV-10463</t>
+          <t>INV-12758</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1221,36 +1185,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2023-05-03</t>
-        </is>
+      <c r="C22" s="2" t="n">
+        <v>45691</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MY KIDS KORNER</t>
+          <t>APRICOT LANE WINTER HAVEN</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5521 D</t>
+          <t>AL-WINTERHAVEN-DLJAN-RESHIP</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>$264.0</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>BROOKLYN STRIPES CROP NAVY, NY LIPS CROP BLACK</t>
+          <t>GAMEDAY FLORIDA CROP BLACK</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INV-10488</t>
+          <t>INV-12760</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1258,36 +1220,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2023-05-09</t>
-        </is>
+      <c r="C23" s="2" t="n">
+        <v>45692</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VALENTINA</t>
+          <t>RUNWAY BOUTIQUE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">VW-2123-C			 			</t>
+          <t>RUNWAYBTQ-DALJAN-RESHIP</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>$144.0</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>TULUM CROP WHITE</t>
+          <t>VAIL APRES SKI BURNOUT PULLOVER BLACK</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INV-10491</t>
+          <t>INV-12761</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1295,36 +1255,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2023-05-09</t>
-        </is>
+      <c r="C24" s="2" t="n">
+        <v>45692</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>WILD CHILD BOUTIQUE</t>
+          <t>RUNWAY BOUTIQUE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5578-C</t>
+          <t>RUNWAYBTQ-CONSIGNMENT PLVRS</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>$400.0</t>
+          <t>$132.0</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>SONNY &amp; CHER GOT YOU BABE TEE WHITE, JANIS JOPLIN HEMISPHERE ARENA CROP WHITE</t>
+          <t>APRES SKI BURNOUT PULLOVER BLK</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INV-10500</t>
+          <t>INV-12781</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1332,36 +1290,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2023-05-11</t>
-        </is>
+      <c r="C25" s="2" t="n">
+        <v>45750</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HASKINS &amp; CO</t>
+          <t>DENNY'S CHILDRENSWEAR</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4628 D</t>
+          <t>52141-SWEATPANT</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>$200.0</t>
+          <t>$4855.2</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ROCK N ROLL DISTRESSED TEE BLK</t>
+          <t>WIDE LEG RAW HEM SWEATPANT OFF BLACK, WIDE LEG RAW HEM SWEATPANT BONE, WIDE LEG RAW HEM SWEATPANT NAVY</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INV-10501</t>
+          <t>INV-12830</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1369,36 +1325,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2023-05-11</t>
-        </is>
+      <c r="C26" s="2" t="n">
+        <v>45701</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>IMAGINE THAT CREATIONS</t>
+          <t>FRANKIE AND JULES</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5512 C</t>
+          <t>FRANKIEJULES-MAGFEB-B</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>$120.0</t>
+          <t>$154.0</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>JANIS JOPLIN HEMISPHERE ARENA CROP WHITE</t>
+          <t>SWEATPANT WIDE LEG W/ BOW PRINTS BLACK</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INV-10502</t>
+          <t>INV-12854</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1406,36 +1360,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2023-09-22</t>
-        </is>
+      <c r="C27" s="2" t="n">
+        <v>45702</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3 SEAS</t>
+          <t>BRIO BOUTIQUE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5565-E</t>
+          <t>BRIOBTQ-MAGFEB B</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>$120.0</t>
+          <t>$132.0</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>BOWIE 74' MINERAL GREY CROP MINERAL GREY</t>
+          <t>JOSHUA TREE PULLOVER ASH GREY</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INV-10512</t>
+          <t>INV-12857</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1443,36 +1395,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2023-05-15</t>
-        </is>
+      <c r="C28" s="2" t="n">
+        <v>45791</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CACTUS LOUNGE BOUTIQUE</t>
+          <t>ROLLING RACK BOUTIQUE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5584-C</t>
+          <t>RLLNGRACK-MAGFEB-B</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>$140.0</t>
+          <t>$814.0</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>TOM PETTY CIRCLE BAND LOGO TEE BLACK</t>
+          <t>SWEATPANT WIDE LEG W/ BOW PRINTS NAVY, SWEATPANT WIDE LEG W/ CHERRIES PRINT , SWEATPANT WIDE LEG W/ SMILEY PRINT BLACK</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INV-10515</t>
+          <t>INV-12877</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1480,36 +1430,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2023-05-15</t>
-        </is>
+      <c r="C29" s="2" t="n">
+        <v>45703</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ON FEMME</t>
+          <t>EVIE + ALEC</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5640 C</t>
+          <t>EVIEALEC-MAGFEB-B</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>$132.0</t>
+          <t>$96.0</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>BLONDIE PICTURE THIS CROP TOP WHITE</t>
+          <t>LA RODEO DRIVE CROP RED</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INV-10519</t>
+          <t>INV-12879</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1517,36 +1465,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2023-05-16</t>
-        </is>
+      <c r="C30" s="2" t="n">
+        <v>45706</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SUNDANCE SHOES</t>
+          <t>APRICOT LANE MCKINNY</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5619 C</t>
+          <t>AL-MCKINNEY-RESHIP-WZR PLVRS</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>$110.0</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ROCK N ROLL DISTRESSED TEE BLACK</t>
+          <t>WEEZER CALI BURNOUT PULLOVER RED</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INV-10526</t>
+          <t>INV-12880</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1554,36 +1500,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>2023-05-16</t>
-        </is>
+      <c r="C31" s="2" t="n">
+        <v>45712</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>GENERAL STORE OF MINNETONKA</t>
+          <t>ROLLING RACK BOUTIQUE</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5577-C</t>
+          <t>RLLNGRACK-MAGFEB-B</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>$160.0</t>
+          <t>$660.0</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>SONNY &amp; CHER GOT YOU BABE TEE WHITE</t>
+          <t>ALANIS JONES BEACH CROP BLACK, BLONDIE COMIC TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INV-10533</t>
+          <t>INV-12898</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1591,36 +1535,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>2023-05-18</t>
-        </is>
+      <c r="C32" s="2" t="n">
+        <v>45715</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>JANEANNE BOUTIQUE</t>
+          <t>BARGAIN BABES</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5701-C</t>
+          <t>BARGAINBABES-COTERFEB</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>$120.0</t>
+          <t>$1110.0</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ELVIS MONTAGE TEE BLK</t>
+          <t>EAST COAST LOVE PULLOVER CROPPED , EAST COAST CROP BLACK, BROOKLYN OLD ENGLISH CROP NAVY, NYC JUMBO TRI-COLOR CROP WHITE, NEW YORK GRAFFITI CROP LIGHT GREY, BROOKLYN STAMPS BOYFRIEND CROP OFF BLACK, NY APPLE MANHATTAN CROP RED</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INV-10541</t>
+          <t>INV-12899</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1628,36 +1570,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2023-05-19</t>
-        </is>
+      <c r="C33" s="2" t="n">
+        <v>45715</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>THE CLOTHES RAK</t>
+          <t>BARGAIN BABES</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5510 RESHIP</t>
+          <t>BARGAINBABES-COTERFEB-PROMO</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>$0.0</t>
+          <t>$56.0</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ASPEN SKI CLUB PULLOVER NAVY MINERAL</t>
+          <t>NY BEACHES CROP BLUE, JANIS JOPLIN PEACE LOVE MUSCLE GREY MINERAL WASH, HERE FOR THE GOOD TIMES SMILEY CROP HEATHER GREY, FRIENDS GREENWICH VILLAGE CROP TOP MULTI TIE-DYE</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>INV-10545</t>
+          <t>INV-12912</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1665,36 +1605,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2023-05-22</t>
-        </is>
+      <c r="C34" s="2" t="n">
+        <v>45715</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DREAMS BOUTIQUE</t>
+          <t>BLUEBIRD AND CO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">5699-C	 			</t>
+          <t>BLUEBIRDCO-COTERFEB</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>$120.0</t>
+          <t>$360.0</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>ALANIS LYRIC TEE WHITE</t>
+          <t>HAPPINESS TEXT TRIBLEND CROP NAVY TRIBLEND, EAST COAST CROP BLACK, HERE FOR THE GOOD TIMES SMILEY CROP BLACK</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>INV-10546</t>
+          <t>INV-12913</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1702,36 +1640,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2023-05-22</t>
-        </is>
+      <c r="C35" s="2" t="n">
+        <v>45715</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DYLAN STAR</t>
+          <t>BLUEBIRD AND CO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5500-C</t>
+          <t>BLUEBIRDCO-COTERFEB-B</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>$240.0</t>
+          <t>$360.0</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>JANIS JOPLIN HEMISPHERE ARENA CROP WHITE, BLONDIE PICTURE THIS CROP TOP WHITE</t>
+          <t>KINDNESS IS MAGIC CROP BLK, OBSESSED TEXT TRIBLEND CROP HEATHER GREY, GAMEDAY SYRACUSE CROP WHITE</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>INV-10551</t>
+          <t>INV-12915</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1739,36 +1675,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2023-05-22</t>
-        </is>
+      <c r="C36" s="2" t="n">
+        <v>45715</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>AIDEN &amp; OLLIE</t>
+          <t>RUNWAY CLOTHING INC.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5706-D</t>
+          <t>RUNWAYCLOTHING-COTERSEPT</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>$120.0</t>
+          <t>$768.0</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>ELVIS MONTAGE TEE BLK</t>
+          <t xml:space="preserve">BROOKLYN STAMPS BURNOUT PULLOVER NAVY, NEW YORK GRAFITTI BURNOUT PULLOVER NAVY, NEW YORK GRAFFITI CROP LIGHT GREY, BROOKLYN STAMPS BOYFRIEND CROP OFF BLACK, JOAN JETT WINGS BOYFRIEND CROP TIE DYE BLUE MULTI, HAMPTONS STAMPS BOYFRIEND CROP WHITE, ***CHECK IN TO SEE WHERE WE SHIP THE GOODS TO.WHEN READY IN 6/1...MOVING STORE LOCATIONS </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INV-10564</t>
+          <t>INV-12916</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1776,36 +1710,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2023-05-26</t>
-        </is>
+      <c r="C37" s="2" t="n">
+        <v>45715</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Calista NYC</t>
+          <t>FRENCH LESSONS</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5534 C</t>
+          <t>FRNCHLNS-COTERFEB</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>$144.0</t>
+          <t>$468.0</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>NY LIPS CROP BLACK</t>
+          <t xml:space="preserve">PARIS MON AMOUR TEE BLACK, CRANBERRIES ARGUE TEE WHITE, EAST COAST LOVE PULLOVER CROPPED </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INV-10567</t>
+          <t>INV-12917</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1813,36 +1745,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2023-05-30</t>
-        </is>
+      <c r="C38" s="2" t="n">
+        <v>45719</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>WILD CHILD BOUTIQUE</t>
+          <t>RUE LA LA</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ELVIS TEE RE-SHIP</t>
+          <t>1047723</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>$0.0</t>
+          <t>$216.0</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>ELVIS KING OF ROCK TEE WHITE</t>
+          <t>PRINCE PETER HACCI PULLOVER RAINBOW / MULTI, PRINCE PETER FLORAL PRINT TEE IVORY, PRINCE PETER CAMO RIBBED TEE CAMO / GREEN, PRINCE PETER SMILEY JOGGER WHITE, PRINCE PETER ZEBRA FITTED TEE BLK/WHITE, PRINCE PETER TIE DYE TRIBLEND TEE Orange, PRINCE PETER PYTHON CROP RAINBOW, PRINCE PETER LISA FRANK PRINT TEE MULTI, PRINCE PETER ZEBRA FITTED TEE WINE/RED, PRINCE PETER TIE DYE SWEATER RED, PRINCE PETER TIE DYE SWEATER BLUE, PRINCE PETER LIGHTING BOLT PULLOVER AND SHORT SET NAVY, PRINCE PETER HACI PULLOVER PINK, PRINCE PETER NEON CROP MULTI, PRINCE PETER ZEBRA CROP RED</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>INV-10577</t>
+          <t>INV-12918</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1850,36 +1780,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2023-08-07</t>
-        </is>
+      <c r="C39" s="2" t="n">
+        <v>45716</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VICI COLLECTIONS, LLC</t>
+          <t>RUE LA LA</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PO9378</t>
+          <t>1052799</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>$8820.0</t>
+          <t>$5382.0</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>BONJOUR BABY WHITE, BONJOUR BABY WHITE, BONJOUR BABY WHITE, APERITIVO PULLOVER WHITE, APERITIVO PULLOVER WHITE, APERITIVO PULLOVER WHITE, APERITIVO PULLOVER WHITE</t>
+          <t>PRINCE PETER HACCI PULLOVER RAINBOW / MULTI, PRINCE PETER HACCI PULLOVER RAINBOW / MULTI, PRINCE PETER HACCI PULLOVER RAINBOW / MULTI, PRINCE PETER HACCI PULLOVER RAINBOW / MULTI, PRINCE PETER FLORAL PRINT TEE IVORY, PRINCE PETER FLORAL PRINT TEE IVORY, PRINCE PETER FLORAL PRINT TEE IVORY, PRINCE PETER FLORAL PRINT TEE IVORY, PRINCE PETER FLORAL PRINT TEE IVORY, PRINCE PETER CAMO RIBBED TEE CAMO / GREEN, PRINCE PETER CAMO RIBBED TEE CAMO / GREEN, PRINCE PETER CAMO RIBBED TEE CAMO / GREEN, PRINCE PETER CAMO RIBBED TEE CAMO / GREEN, PRINCE PETER CAMO RIBBED TEE CAMO / GREEN, PRINCE PETER SMILEY JOGGER WHITE, PRINCE PETER SMILEY JOGGER WHITE, PRINCE PETER SMILEY JOGGER WHITE, PRINCE PETER ZEBRA FITTED TEE BLK/WHITE, PRINCE PETER ZEBRA FITTED TEE BLK/WHITE, PRINCE PETER ZEBRA FITTED TEE BLK/WHITE, PRINCE PETER TIE DYE TRIBLEND TEE Orange, PRINCE PETER TIE DYE TRIBLEND TEE Orange, PRINCE PETER TIE DYE TRIBLEND TEE Orange, PRINCE PETER TIE DYE TRIBLEND TEE Orange, PRINCE PETER PYTHON CROP RAINBOW, PRINCE PETER PYTHON CROP RAINBOW, PRINCE PETER PYTHON CROP RAINBOW, PRINCE PETER PYTHON CROP RAINBOW, PRINCE PETER PYTHON CROP RAINBOW, PRINCE PETER LISA FRANK PRINT TEE MULTI, PRINCE PETER LISA FRANK PRINT TEE MULTI, PRINCE PETER LISA FRANK PRINT TEE MULTI, PRINCE PETER LISA FRANK PRINT TEE MULTI, PRINCE PETER LISA FRANK PRINT TEE MULTI, PRINCE PETER ZEBRA FITTED TEE WINE/RED, PRINCE PETER ZEBRA FITTED TEE WINE/RED, PRINCE PETER ZEBRA FITTED TEE WINE/RED, PRINCE PETER ZEBRA FITTED TEE WINE/RED, PRINCE PETER TIE DYE SWEATER RED, PRINCE PETER TIE DYE SWEATER RED, PRINCE PETER TIE DYE SWEATER RED, PRINCE PETER TIE DYE SWEATER BLUE, PRINCE PETER TIE DYE SWEATER BLUE, PRINCE PETER TIE DYE SWEATER BLUE, PRINCE PETER TIE DYE SWEATER BLUE, PRINCE PETER LIGHTING BOLT PULLOVER AND SHORT SET NAVY, PRINCE PETER LIGHTING BOLT PULLOVER AND SHORT SET NAVY, PRINCE PETER LIGHTING BOLT PULLOVER AND SHORT SET NAVY, PRINCE PETER LIGHTING BOLT PULLOVER AND SHORT SET NAVY, PRINCE PETER HACI PULLOVER PINK, PRINCE PETER HACI PULLOVER PINK, PRINCE PETER HACI PULLOVER PINK, PRINCE PETER NEON CROP MULTI, PRINCE PETER NEON CROP MULTI, PRINCE PETER NEON CROP MULTI, PRINCE PETER NEON CROP MULTI, PRINCE PETER ZEBRA CROP RED, PRINCE PETER ZEBRA CROP RED, PRINCE PETER ZEBRA CROP RED, PRINCE PETER ZEBRA CROP RED, PRINCE PETER ZEBRA CROP RED</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>INV-10579</t>
+          <t>INV-12920</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1887,36 +1815,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2023-08-09</t>
-        </is>
+      <c r="C40" s="2" t="n">
+        <v>45716</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VICI COLLECTIONS, LLC</t>
+          <t>GAIA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PO9452</t>
+          <t>GAIA-COTERFEB-B</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>$7056.0</t>
+          <t>$144.0</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>NEW YORK CITY WHITE, NEW YORK CITY WHITE, NEW YORK CITY WHITE, NEW YORK CITY WHITE, NEW YORK CITY WHITE, CIAO TEE WHITE, CIAO TEE WHITE, CIAO TEE WHITE, CIAO TEE WHITE, CIAO TEE WHITE</t>
+          <t>SMILEY FLORAL CROP BLACK</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>INV-10583</t>
+          <t>INV-12924</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1924,36 +1850,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2023-06-05</t>
-        </is>
+      <c r="C41" s="2" t="n">
+        <v>45717</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>WEST OF CAMDEN</t>
+          <t>LISA DICKSTEIN LLC</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">5571-HB-3	 			</t>
+          <t>LISADICKSTIEN-COTERFEB-B</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>$220.0</t>
+          <t>$288.0</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA CROP BLUE</t>
+          <t>OUTER BANKS LOBSTER CROP WHITE, CASSETTE TAPE MUSCLE TANK OFF WHITE, HAPPINESS TEXT TRIBLEND CROP NAVY TRIBLEND</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>INV-10584</t>
+          <t>INV-12926</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1961,36 +1885,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2023-06-05</t>
-        </is>
+      <c r="C42" s="2" t="n">
+        <v>45717</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>WEST OF CAMDEN</t>
+          <t>HAPPY LIL THING</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5571-SD-3</t>
+          <t>HAPPYLILTHNG-COTERFEB-PROMO</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>$220.0</t>
+          <t>$120.0</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA CROP BLUE</t>
+          <t>BROOKLYN ATHLETIC 85' TIGER PULLOVER BLACK</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>INV-10591</t>
+          <t>INV-12939</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1998,36 +1920,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>2023-06-09</t>
-        </is>
+      <c r="C43" s="2" t="n">
+        <v>45719</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>JORDAN RUDOW</t>
+          <t>LAF COLLECTIBLES</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>JORDAN RUDOW MAGIC-PROMO</t>
+          <t>LAFCOL-COTERFEB-B</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>$0.0</t>
+          <t>$104.0</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>FREEDOM FESTIVAL CROP BLACK, FREEDOM HALL FESTIVAL CROP KIDS BLACK, SHOOTING STARS PULLOVER OFF BLACK, LOS ANGELES VARSITY PULLOVER CHARCOAL</t>
+          <t>VARSITY 15 PULLOVER CROPPED LT PINK</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>INV-10602</t>
+          <t>INV-12942</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2035,36 +1955,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>2023-06-11</t>
-        </is>
+      <c r="C44" s="2" t="n">
+        <v>45719</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DARLING BETTY'S</t>
+          <t>LAVALAV</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4745</t>
+          <t>LAVALAV-COTERFEB-B</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>$160.0</t>
+          <t>$408.0</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>BOB DYLAN 1966 WORLD TOUR WHITE</t>
+          <t>CITY OF LOVE PARIS CROP WHITE, APERTIVO GRAPHIC (LEMONADE) CROP OFF-WHITE, CASSETTE TAPE BURNOUT PULLOVER CROP BLACK, VARSITY 15 PULLOVER CROPPED LT PINK</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>INV-10629</t>
+          <t>INV-12943</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2072,36 +1990,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>2023-06-19</t>
-        </is>
+      <c r="C45" s="2" t="n">
+        <v>45719</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>WILDFLOWER REPUTATION</t>
+          <t>JUNKMAN'S DAUGHTER</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4718</t>
+          <t>JNKMNSDAUGT-COTERFEB-B</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>$60.0</t>
+          <t>$288.0</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>WOODSTOCK POSTER CROP BLACK</t>
+          <t>GEORGIA DISTRESSED CROP TOP RED, ALANIS JONES BEACH CROP BLACK, ALANIS JONES BEACH TEE BLACK</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>INV-10636</t>
+          <t>INV-12962</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2109,36 +2025,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>2023-06-13</t>
-        </is>
+      <c r="C46" s="2" t="n">
+        <v>45722</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>BELLA U</t>
+          <t>ROLLING RACK BOUTIQUE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4714 B</t>
+          <t>RLLNGRACK-DMG REPLACEMENTS</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>$160.0</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>NY BUBBLE CROP BLACK</t>
+          <t>BOXING SHORT CHERRY RED</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>INV-10637</t>
+          <t>INV-12963</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2146,36 +2060,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>2023-06-13</t>
-        </is>
+      <c r="C47" s="2" t="n">
+        <v>45722</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>THE IVORY CLOSET</t>
+          <t>WILD POPPY &amp; CO BOUTIQUE</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4524 B</t>
+          <t>WILD POPPY-SHORT SHIP-RESHIP</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>$120.0</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ELVIS VEGAS TEE BLACK</t>
+          <t>CASSETTE TAPE BURNOUT PULLOVER NAVY</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>INV-10641</t>
+          <t>INV-12964</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2183,36 +2095,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>2023-06-13</t>
-        </is>
+      <c r="C48" s="2" t="n">
+        <v>45722</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>UNDER THE WILLOW</t>
+          <t>AT WILL INC</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PPCT3DC2B872C7 RESHIP</t>
+          <t>ATWILL-MAGFEB-B</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>$0.0</t>
+          <t>$88.0</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>ALANIS JONES BEACH TEE BLACK</t>
+          <t>JIMI HENDRIX FLORAL CROP PULLOVER WHITE</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INV-10643</t>
+          <t>INV-12974</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2220,36 +2130,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>2023-09-22</t>
-        </is>
+      <c r="C49" s="2" t="n">
+        <v>45727</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Veronica rayne</t>
+          <t>PRIYA KAKKAR</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4562-B</t>
+          <t>PROMO FROM COTERIE SHOW FEB 25'</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>$120.0</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>BOWIE 74' MINERAL GREY CROP MINERAL GREY</t>
+          <t>HAMPTONS VARSIY SAIL BURNOUT PULLOVER VINTAGE YELLOW, SUNSET DREAM FESTIVAL CROP OFF WHITE, SMILEY VINTAGE CROP WHITE, JOAN JETT WINGS BOYFRIEND CROP TIE DYE BLUE MULTI, POISON CAT TEE BLK, SANTORINI PULLOVER CROP GREY</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>INV-10645</t>
+          <t>INV-12988</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2257,36 +2165,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>2023-06-15</t>
-        </is>
+      <c r="C50" s="2" t="n">
+        <v>45733</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>APRICOT LANE FRANKLIN</t>
+          <t>SEVERED WING</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5625 C</t>
+          <t>SEVEREDWNG-COTERFEB-B</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>$120.0</t>
+          <t>$60.0</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>KINDNESS IS MAGIC TEE BLACK</t>
+          <t xml:space="preserve">LASER CUT RECORDS-ROLLING STONES , LASER CUT RECORDS-DAVID BOWIE </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>INV-10656</t>
+          <t>INV-12990</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2294,36 +2200,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2023-09-22</t>
-        </is>
+      <c r="C51" s="2" t="n">
+        <v>45734</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>WILDFLOWER REPUTATION</t>
+          <t>OLIVE 54</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4718 B</t>
+          <t>NYLA-OLIVE54-014-B</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>$80.0</t>
+          <t>$96.0</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>BOWIE 74' CROP MINERAL GREY</t>
+          <t>JERSEY SHORE STAMPS BOYFRIEND CROP WHITE</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>INV-10659</t>
+          <t>INV-12995</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2331,36 +2235,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2023-06-21</t>
-        </is>
+      <c r="C52" s="2" t="n">
+        <v>45735</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Saffron</t>
+          <t>CHLOE'S BOUTIQUE</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SAF-0523 C</t>
+          <t>CHLOESBTQ-CASSETTETPNEW</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>$120.0</t>
+          <t>$140.0</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>TOM PETTY ANYTHING THAT ROCK TEE SALMON</t>
+          <t>CASSETTE TAPE MUSCLE TANK COBALT BLUE</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>INV-10682</t>
+          <t>INV-12996</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2368,36 +2270,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2023-08-07</t>
-        </is>
+      <c r="C53" s="2" t="n">
+        <v>45750</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>HAVANA JEANS</t>
+          <t>RUE LA LA</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4699-B</t>
+          <t>1049118</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>$760.0</t>
+          <t>$347.0</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>NY LIPS CROP BLACK, NYC JUMBO LETTER CROP BLACK, BIKE WEEK CROP OFF-BLK</t>
+          <t>PRINCE PETER WOODSTOCK PEACE LOVE TEE WHITE, PRINCE PETER ROCK N ROLL CROP WHITE, PRINCE PETER BOB DYLAN ROLLING STONE TEE WHITE, PRINCE PETER LADIES BOXING SHORTS BONE/WHITE, PRINCE PETER JOAN JETT WINGS OVERSIZED TEE MINERAL GREY / GREY, PRINCE PETER JANIS PEACE LOVE MUSCLE TANK MINERAL GREY / GREY, PRINCE PETER BRUNCH CLUB TEE BLACK, PRINCE PETER JIMI HENDRIX EUROPEAN TOUR TEE WHITE, PRINCE PETER BIKE WEEK CROP BLACK, PRINCE PETER FRIENDS UMBRELLA TEE WHITE, PRINCE PETER LADIES BOXING SHORTS BABY PINK, PRINCE PETER JANIS JOPLIN HEMISPHERE ARENA CROP WHITE, PRINCE PETER SLEEP WHN YOUR DEAD TEE WHITE, PRINCE PETER PASTA LA VISTA BABY TEE WHITE, PRINCE PETER LADIES BOXING SHORTS RED, PRINCE PETER FREE YOUR SOUL TEE BLACK, PRINCE PETER LADIES BOXING SHORTS NAVY, PRINCE PETER NASHVILLE BROADWAY CROP WHITE, PRINCE PETER BILLY IDOL WHIPLASH TOUR TEE BLACK, PRINCE PETER GREAT AMERICAN TOUR TEE BLACK, PRINCE PETER LADIES BOXING SHORTS BLACK, PRINCE PETER JIMI HENDSRIX FLORAL TEE WHITE, PRINCE PETER WHITNEY HOUSTON COLLAGE TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>INV-10683</t>
+          <t>INV-12997</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2405,36 +2305,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2023-08-29</t>
-        </is>
+      <c r="C54" s="2" t="n">
+        <v>45751</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>HAVANA JEANS</t>
+          <t>RUE LA LA</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4699-C</t>
+          <t>1049117</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>$336.0</t>
+          <t>$8893.7</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>ASPEN SKI CLUB MINERAL WASH CROP PULLOVER NAVY MINERAL WASH</t>
+          <t>PRINCE PETER WOODSTOCK PEACE LOVE TEE WHITE, PRINCE PETER WOODSTOCK PEACE LOVE TEE WHITE, PRINCE PETER WOODSTOCK PEACE LOVE TEE WHITE, PRINCE PETER WOODSTOCK PEACE LOVE TEE WHITE, PRINCE PETER WOODSTOCK PEACE LOVE TEE WHITE, PRINCE PETER ROCK N ROLL CROP WHITE, PRINCE PETER ROCK N ROLL CROP WHITE, PRINCE PETER ROCK N ROLL CROP WHITE, PRINCE PETER ROCK N ROLL CROP WHITE, PRINCE PETER ROCK N ROLL CROP WHITE, PRINCE PETER BOB DYLAN ROLLING STONE TEE WHITE, PRINCE PETER BOB DYLAN ROLLING STONE TEE WHITE, PRINCE PETER BOB DYLAN ROLLING STONE TEE WHITE, PRINCE PETER BOB DYLAN ROLLING STONE TEE WHITE, PRINCE PETER LADIES BOXING SHORTS BONE/WHITE, PRINCE PETER LADIES BOXING SHORTS BONE/WHITE, PRINCE PETER LADIES BOXING SHORTS BONE/WHITE, PRINCE PETER LADIES BOXING SHORTS BONE/WHITE, PRINCE PETER JOAN JETT WINGS OVERSIZED TEE MINERAL GREY / GREY, PRINCE PETER JOAN JETT WINGS OVERSIZED TEE MINERAL GREY / GREY, PRINCE PETER JOAN JETT WINGS OVERSIZED TEE MINERAL GREY / GREY, PRINCE PETER JOAN JETT WINGS OVERSIZED TEE MINERAL GREY / GREY, PRINCE PETER JANIS PEACE LOVE MUSCLE TANK MINERAL GREY / GREY, PRINCE PETER JANIS PEACE LOVE MUSCLE TANK MINERAL GREY / GREY, PRINCE PETER JANIS PEACE LOVE MUSCLE TANK MINERAL GREY / GREY, PRINCE PETER JANIS PEACE LOVE MUSCLE TANK MINERAL GREY / GREY, PRINCE PETER JANIS PEACE LOVE MUSCLE TANK MINERAL GREY / GREY, PRINCE PETER BRUNCH CLUB TEE BLACK, PRINCE PETER BRUNCH CLUB TEE BLACK, PRINCE PETER BRUNCH CLUB TEE BLACK, PRINCE PETER BRUNCH CLUB TEE BLACK, PRINCE PETER BRUNCH CLUB TEE BLACK, PRINCE PETER JIMI HENDRIX EUROPEAN TOUR TEE WHITE, PRINCE PETER JIMI HENDRIX EUROPEAN TOUR TEE WHITE, PRINCE PETER JIMI HENDRIX EUROPEAN TOUR TEE WHITE, PRINCE PETER JIMI HENDRIX EUROPEAN TOUR TEE WHITE, PRINCE PETER JIMI HENDRIX EUROPEAN TOUR TEE WHITE, PRINCE PETER BIKE WEEK CROP BLACK, PRINCE PETER BIKE WEEK CROP BLACK, PRINCE PETER BIKE WEEK CROP BLACK, PRINCE PETER BIKE WEEK CROP BLACK, PRINCE PETER BIKE WEEK CROP BLACK, PRINCE PETER FRIENDS UMBRELLA TEE WHITE, PRINCE PETER FRIENDS UMBRELLA TEE WHITE, PRINCE PETER FRIENDS UMBRELLA TEE WHITE, PRINCE PETER LADIES BOXING SHORTS BABY PINK, PRINCE PETER LADIES BOXING SHORTS BABY PINK, PRINCE PETER LADIES BOXING SHORTS BABY PINK, PRINCE PETER LADIES BOXING SHORTS BABY PINK, PRINCE PETER JANIS JOPLIN HEMISPHERE ARENA CROP WHITE, PRINCE PETER JANIS JOPLIN HEMISPHERE ARENA CROP WHITE, PRINCE PETER JANIS JOPLIN HEMISPHERE ARENA CROP WHITE, PRINCE PETER SLEEP WHN YOUR DEAD TEE WHITE, PRINCE PETER SLEEP WHN YOUR DEAD TEE WHITE, PRINCE PETER SLEEP WHN YOUR DEAD TEE WHITE, PRINCE PETER SLEEP WHN YOUR DEAD TEE WHITE, PRINCE PETER SLEEP WHN YOUR DEAD TEE WHITE, PRINCE PETER PASTA LA VISTA BABY TEE WHITE, PRINCE PETER PASTA LA VISTA BABY TEE WHITE, PRINCE PETER PASTA LA VISTA BABY TEE WHITE, PRINCE PETER PASTA LA VISTA BABY TEE WHITE, PRINCE PETER PASTA LA VISTA BABY TEE WHITE, PRINCE PETER LADIES BOXING SHORTS RED, PRINCE PETER LADIES BOXING SHORTS RED, PRINCE PETER LADIES BOXING SHORTS RED, PRINCE PETER LADIES BOXING SHORTS RED, PRINCE PETER FREE YOUR SOUL TEE BLACK, PRINCE PETER FREE YOUR SOUL TEE BLACK, PRINCE PETER FREE YOUR SOUL TEE BLACK, PRINCE PETER FREE YOUR SOUL TEE BLACK, PRINCE PETER FREE YOUR SOUL TEE BLACK, PRINCE PETER LADIES BOXING SHORTS NAVY, PRINCE PETER LADIES BOXING SHORTS NAVY, PRINCE PETER LADIES BOXING SHORTS NAVY, PRINCE PETER LADIES BOXING SHORTS NAVY, PRINCE PETER NASHVILLE BROADWAY CROP WHITE, PRINCE PETER NASHVILLE BROADWAY CROP WHITE, PRINCE PETER NASHVILLE BROADWAY CROP WHITE, PRINCE PETER NASHVILLE BROADWAY CROP WHITE, PRINCE PETER NASHVILLE BROADWAY CROP WHITE, PRINCE PETER BILLY IDOL WHIPLASH TOUR TEE BLACK, PRINCE PETER BILLY IDOL WHIPLASH TOUR TEE BLACK, PRINCE PETER BILLY IDOL WHIPLASH TOUR TEE BLACK, PRINCE PETER BILLY IDOL WHIPLASH TOUR TEE BLACK, PRINCE PETER BILLY IDOL WHIPLASH TOUR TEE BLACK, PRINCE PETER GREAT AMERICAN TOUR TEE BLACK, PRINCE PETER GREAT AMERICAN TOUR TEE BLACK, PRINCE PETER GREAT AMERICAN TOUR TEE BLACK, PRINCE PETER GREAT AMERICAN TOUR TEE BLACK, PRINCE PETER GREAT AMERICAN TOUR TEE BLACK, PRINCE PETER LADIES BOXING SHORTS BLACK, PRINCE PETER LADIES BOXING SHORTS BLACK, PRINCE PETER LADIES BOXING SHORTS BLACK, PRINCE PETER LADIES BOXING SHORTS BLACK, PRINCE PETER JIMI HENDSRIX FLORAL TEE WHITE, PRINCE PETER JIMI HENDSRIX FLORAL TEE WHITE, PRINCE PETER JIMI HENDSRIX FLORAL TEE WHITE, PRINCE PETER JIMI HENDSRIX FLORAL TEE WHITE, PRINCE PETER JIMI HENDSRIX FLORAL TEE WHITE, PRINCE PETER WHITNEY HOUSTON COLLAGE TEE WHITE, PRINCE PETER WHITNEY HOUSTON COLLAGE TEE WHITE, PRINCE PETER WHITNEY HOUSTON COLLAGE TEE WHITE, PRINCE PETER WHITNEY HOUSTON COLLAGE TEE WHITE, PRINCE PETER WHITNEY HOUSTON COLLAGE TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>INV-10702</t>
+          <t>INV-13001</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2442,36 +2340,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2023-07-21</t>
-        </is>
+      <c r="C55" s="2" t="n">
+        <v>45772</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>LULU'S</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>23035379</t>
+          <t>209332</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>$3000.0</t>
+          <t>$6075.0</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>NY LIPS CROP BLACK/MULTI</t>
+          <t>CASSETTE TAPE MUSCLE CROP BLACK, CASSETTE TAPE MUSCLE CROP BLACK, CASSETTE TAPE MUSCLE CROP BLACK, CASSETTE TAPE MUSCLE CROP BLACK, CASSETTE TAPE MUSCLE CROP BLACK</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>INV-10703</t>
+          <t>INV-13024</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2479,36 +2375,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2023-07-21</t>
-        </is>
+      <c r="C56" s="2" t="n">
+        <v>45746</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>COWTOWN BLING N THINGS</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>23035397</t>
+          <t>BLNGTHINGS-DALMAR</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>$3300.0</t>
+          <t>$96.0</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>BLONDIE CIRCLE BAND CROP WHITE/MULTI</t>
+          <t>BLONDIE COMIC TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>INV-10704</t>
+          <t>INV-13032</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2516,36 +2410,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2023-07-21</t>
-        </is>
+      <c r="C57" s="2" t="n">
+        <v>45748</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>Blu Poppy Boutique</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>23035384</t>
+          <t>NYLA-BLUPOPPY-018-B</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>$4002.0</t>
+          <t>$144.0</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>HENDRIX SOLO GUITAR TEE BLACK/ MULTI</t>
+          <t>EAST COAST CROP WHT/NAVY PRINT</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>INV-10705</t>
+          <t>INV-13034</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2553,36 +2445,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2023-07-21</t>
-        </is>
+      <c r="C58" s="2" t="n">
+        <v>45748</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>LOVE ALWAYS (KATY, TX)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>23035388</t>
+          <t>LOVEALWAYS-DALMAR-B</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>$4422.0</t>
+          <t>$102.0</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>ELVIS SUN STUDIO TEE WHITE</t>
+          <t>ALANIS JONES BEACH TEE BLACK</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>INV-10706</t>
+          <t>INV-13038</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2590,36 +2480,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2023-07-21</t>
-        </is>
+      <c r="C59" s="2" t="n">
+        <v>45749</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>RUE LA LA</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>23035389</t>
+          <t>1049469</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>$3000.0</t>
+          <t>$1164.6</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>LA RODEO DRIVE CROP RED / WHITE</t>
+          <t>RICK SPRINGFIELD GIRL SUNGLASSES TEE WHITE, WOODSTOCK POSTER CROP BLACK, WEEZER BAND TEE WHITE, ZZ TOP BADDEST TEE WHITE, CRANBERRIES NO NEED TO ARGUE TEE WHITE, JANIS JOPLIN PEACOCKS UNISEX TEE WHITE, WEEZER UNICORN CROP PULLOVER BLACK, JIMI HENDRIX IN MOTION TEE BLACK, BLONDIE PYTHON CROP BROWN, JOAN JETT QUEEN OF HEARTS PULLOVER WHITE, ELVIS PRESLEY CIRCLE BAND TEE WHITE, TOM PETTY LOGO CROP OFF-WHITE, BOWIE STARS OVERSIZED TEE BLACK, WEEZER UNICORN OVERSIZED TEE MINERAL WASH, SANTANA RAINBOW SUPERNATURAL TOUR TEE WHITE, BLONDIE CIRCLE BAND CROP WHITE, JOAN JETT QUEEN OF HEARTS TEE WHITE, JIMI HENDRIX EUROPEAN TOUR PULLOVER CROP LIGHT GREY, BLONDIE REPEAT CROP WHITE, TINA TURNER GOLD FLECK BURNOUT PULLOVER BLACK, SANTANA RAINBOW BURNOUT PULLOVER VINTAGE YELLOW, TOM PETTY GREAT WIDE OPEN TOUR BUS TEE WHITE, JIMI HENDRIX ENGLAND TOUR BURNOUT PULLOVER NAVY, SANTANA MATRIX TEE BLACK, SONNY &amp; CHER CLEVELAND HALL CROP OR TEE BLACK, SANTANA IN CONCERT TEE BLACK, BLONDIE STARS TEE BLACK, JIMI HENDRIX MONTAGE TEE WHITE, WEEZER TOO LOUD CROP OR TEE WHITE, SONNY &amp; CHER THE BEAT GOES ON CROP HEATHER GREY TRIBLEND, STEVE MILLER BOXES TEE NAVY, WOODSTOCK SUMMER OF LOVE TEE WHITE, BUDDY HOLLY CRICKETS TEE WHITE, JANIS JOPLIN PORTRAIT OVERSIZED TEE WHITE, BLONDIE CALL ME COMIC BOYFRIEND CROP WHITE, POISON CAT TEE BLACK, BLONDIE LIPS TEE WHITE, BOWIE PORTRAIT GUITAR TEE BLACK, WOODSTOCK VINES CROP BLACK, JIMI HENDRIX ENGLAND TOUR TEE BLACK, ELVIS PRESELY CIRCLE PULLOVER WHITE, BILLY IDOL MIDNIGHT HOUR TEE WHITE, CHEAP TRICK CHECKERBOARD TEE OR CROP BLACK, ALANIS MORISSETTE LIVE LEARN OVERSIZED TEE WHITE, BLONDIE COMIC TEE WHITE, CRANBERRIES ZOMBIE TOUR TEE BLACK, WEEZER DOMINATION TOUR TEE YELLOW, TOM PETTY 1991 TOUR TEE OFF-WHITE, SANTANA DRAGON TEE BLACK, BOWIE 1974 CROP MINT TRIBLEND, JOAN JETT GUITAR TEE WHITE, TINA TURNER PORTRAIT OVERSIZED TEE BLACK, TOM PETTY WAY OUT WEST TOUR TEE WHITE, FLOCK OF SEAGULLS IRAN TEE BLACK, BILLY IDOL DAYTIME DRAMA TEE BLACK, JIMI HENDRIX FLORAL PULLOVER HEATHER GREY, POISON NOTHING BUT A GOOD TIME TEE BLACK, BILLY IDOL DAYTIME DRAMA MUSCLE TANK BLACK, TOM PETTY CIRCLE BAND MUSCLE TANK MINERAL BLACK, CHEAP TRICK CHECK ROSE TEE WHITE, WEEZER CALI TEE BLACK, HENDRIX SOLO GUITAR UNISEX TEE BLACK, WEEZER CALI BURNOUT PULLOVER RED, TINA TURNER GOLD GLITTER TEE BLACK, ELVIS PRESLEY HEARTBREAKER TEE WHITE, TOM PETTY BUS CROP WHITE, BOWIE IN CONCERT TEE BLACK, WHITNEY HOUSTON STARS OVERSIZED TEE BLACK, WHITNEY HOUSTON OVERSIZED MOTO TEE WHITE, BOB DYLAN 1966 WORLD TOUR TEE OR CROP WHITE, VILLAGE PEOPLE YMCA TEE BLACK, TOM PETTY BUS TOUR BURNOUT PULLOVER VINTAGE YELLOW</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>INV-10707</t>
+          <t>INV-13045</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2627,36 +2515,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2023-07-21</t>
-        </is>
+      <c r="C60" s="2" t="n">
+        <v>45749</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>LIBBYS STORY</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>23035392</t>
+          <t>2FOURTEEN-08039</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>$3828.0</t>
+          <t>$528.0</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>WHITNEY MOTO OVERSIZE TEE WHITE / MULTI</t>
+          <t>BLONDIE TEXT BURNOUT CROP ELECTRIC BLUE, WEEZER UNICORN OVERSIZED TEE MINERAL WASH GREY, JIMI HENDRIX ENGLAND TOUR BURNOUT PULLOVER NAVY, SANTANA RAINBOW BURNOUT PULLOVER BURNOUT YELLOW</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>INV-10708</t>
+          <t>INV-13047</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2664,36 +2550,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2023-07-21</t>
-        </is>
+      <c r="C61" s="2" t="n">
+        <v>45751</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>THIRTY SOMETHING</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>23035394</t>
+          <t>NYLA-THRYSMG-011-RESHIP</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>$3300.0</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>TOM PETTYTEE CREAM / MULTI</t>
+          <t xml:space="preserve">FRESHLY SQUEEZED LEMONS CROP WHITE, HAMPTONS STAMPS BOYFRIEND CROP WHITE, **RESHIPMENT-SHIPPED HER S/S CREW TEES ON INV 12957 INSTEAD OF CROPS IN HAMPTONS STAMPS AND FRESHLY SQUEEZED LEMONS STYLES... </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>INV-10722</t>
+          <t>INV-13049</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2701,36 +2585,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
+      <c r="C62" s="2" t="n">
+        <v>45751</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>SUGAR CHIC BOUTIQUE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>23038062</t>
+          <t>SUGARCHIC-DALMAR-RESHIP</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>$6400.0</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>APERITIVO PULLOVER WHITE / MULTI</t>
+          <t xml:space="preserve">GULF OF AMERICA BURNOUT CROP WHITE, BABES SUPPORT BABES CROP WHITE, RESHIP-SHIPPED THEM STANDARD LENGTH TEES ON INITIAL SHIPMENT INV 13018 , WHEN THEY ORDERED CROPS...BUYER IS KEEPING THE STANDARD LENGTH ONES ON CONSIGNMENT. </t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>INV-10723</t>
+          <t>INV-13052</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2738,36 +2620,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
+      <c r="C63" s="2" t="n">
+        <v>45751</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>SAVVY CHIC BOUTIQUE</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>23038066</t>
+          <t>SAVCHIC-MAGFEB-RESHIP</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>$5198.0</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>BOB DYLAN ROLLING STONE TEE WHITE / MULTI</t>
+          <t xml:space="preserve">JOAN JETT GUITAR CROP WHITE, RESHIP-RECEIVED 2 DAMAGES W/STAINES ON INITIAL INV #12841...RETURNED THE 2 DAMAGES UNDER TRK #1Z01VY580395103978..RECEIVED 3/4.... </t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>INV-10724</t>
+          <t>INV-13053</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2775,36 +2655,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
+      <c r="C64" s="2" t="n">
+        <v>45754</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>LULU'S</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>23038070</t>
+          <t>210101</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>$5400.0</t>
+          <t>$8100.0</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>BOB DYLAN 1966 WORLD TOUR WHITE / MULTI</t>
+          <t>CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK, CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK, CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK, CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK, CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>INV-10725</t>
+          <t>INV-13055</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2812,36 +2690,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
+      <c r="C65" s="2" t="n">
+        <v>45754</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>SHE'S THE ONE II</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>23038071</t>
+          <t>VA33247</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>$4000.0</t>
+          <t>$360.0</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>KEEP IT ROLLING TEE WHITE / RED</t>
+          <t>ESPRESSO MARTINI TEE WHITE, PALM SPRINGS RETRO MINERAL GREY CROP MINERAL GREY, JOAN JETT WINGS BOYFRIEND CROP TIE DYE BLUE MULTI, HAMPTONS STAMPS BOYFRIEND CROP WHITE</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>INV-10726</t>
+          <t>INV-13059</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2849,36 +2725,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
+      <c r="C66" s="2" t="n">
+        <v>45754</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>MAGNOLIA BOUTIQUE(IN)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>23038074</t>
+          <t>VA33247</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>$3150.0</t>
+          <t>$1400.0</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>RIDE WITH PRIDE TEE WHITE / MULTI</t>
+          <t>LADY LUCK BOOTS BURNOUT TEE WHITE, SUNSET DREAM FESTIVAL CROP OFF WHITE, MODELO BOTTLE TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>INV-10727</t>
+          <t>INV-13061</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2886,36 +2760,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
+      <c r="C67" s="2" t="n">
+        <v>45754</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>LA MODA BOUTIQUE(FL)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>23038079</t>
+          <t>VA33340</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>$5400.0</t>
+          <t>$672.0</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>CHEAP TRICK TEE WHITE / MULTI</t>
+          <t>GULF OF AMERICA PATCHES BURNOUT TEE WHITE, FRESHLY SQUEEZED LEMONS TEE , AMALFI COAST PULLOVER CROPPED LIGHT PINK, POSITANO LEMONS PULLOVER CROPPED LIGHT GREY, ESPRESSO MARTINI TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>INV-10728</t>
+          <t>INV-13066</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2923,36 +2795,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
+      <c r="C68" s="2" t="n">
+        <v>45754</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>KATY ROMANO</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>23038088</t>
+          <t>VA33333-SALES GIRL PERSONAL VACCRELLI-B</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>$3150.0</t>
+          <t>$20.0</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>BEVERLY HILLS CREST TEE WHITE / MULTI</t>
+          <t xml:space="preserve">LASER CUT RECORDS-BOB DYLAN </t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>INV-10729</t>
+          <t>INV-13073</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2960,36 +2830,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
+      <c r="C69" s="2" t="n">
+        <v>45756</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>REIGN</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>23038098</t>
+          <t>NYLA-REIGN-020-B</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>$4800.0</t>
+          <t>$192.0</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>HAMPTONS PULLOVER WHITE / MULTI</t>
+          <t>EAST COAST CROP WHT/NAVY</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>INV-10730</t>
+          <t>INV-13076</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2997,36 +2865,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
+      <c r="C70" s="2" t="n">
+        <v>45763</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>SANDRYNE BOUTIQUE</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>23038104</t>
+          <t>PRINCEP061525</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>$4950.0</t>
+          <t>$610.0</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>TOM PETTY LOGO CROP WHITE / MULTI</t>
+          <t>ESPRESSO MARTINI TEE WHITE, COOL MOM TEE WHITE, AMERICAN COWGIRL BURNOUT TEE BLACK, AMALFI COAST PULLOVER CROPPED LIGHT PINK</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>INV-10731</t>
+          <t>INV-13078</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3034,36 +2900,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
+      <c r="C71" s="2" t="n">
+        <v>45763</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>BIRDCAGE</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>23038107</t>
+          <t>BIRDCAGE-COTERFEB-B</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>$4950.0</t>
+          <t>$384.0</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>JIMI HENDRIX ARE YOU EXPERIENCED TEE WHITE / MULTI</t>
+          <t>EAST COAST CROP WHITE/NAVY PRINT</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>INV-10732</t>
+          <t>INV-13088</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3071,36 +2935,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
+      <c r="C72" s="2" t="n">
+        <v>45765</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>PAPER MOON</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>23038111</t>
+          <t>PAPERMOON-MAGNASH-B</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>$3000.0</t>
+          <t>$402.0</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ROCK N' ROLL ALL NIGHT CROP BLACK</t>
+          <t>CASSETTE TAPE BURNOUT PULLOVER NAVY, JIMI HENDRIX ENGLAND TOUR BURNOUT PULLOVER NAVY, WEEZER UNICORN PULLOVER CROP BLACK</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>INV-10733</t>
+          <t>INV-13121</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3108,36 +2970,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
+      <c r="C73" s="2" t="n">
+        <v>45768</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>THISTLE DEW</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>23038117</t>
+          <t>THISTYLEDEW-MAGNASH-B</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>$4950.0</t>
+          <t>$384.0</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>BOWIE 74 CROP WHITE / MULTI</t>
+          <t>LE PICNIC TEE WHITE, ESPRESSO MARTINI TEE WHITE, BROOKLYN STAMPS BOYFRIEND CROP OFF BLACK, CASSETTE TAPE MUSCLE TANK OFF BLACK</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>INV-10734</t>
+          <t>INV-13126</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3145,36 +3005,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
+      <c r="C74" s="2" t="n">
+        <v>45768</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>JORDAN RUDOW</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>23038121</t>
+          <t>JORDAN RUDOW MAGIC NASH-PROMO</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>$4650.0</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>GOLD COAST VENICE PULLOVER HEATHER GREY / MULTI</t>
+          <t>BOXING SHORT SMILEY BLACK, NASHVILLE WHISKY SALOON CROP BURGANDY</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>INV-10735</t>
+          <t>INV-13127</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3182,36 +3040,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
+      <c r="C75" s="2" t="n">
+        <v>45768</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>FIB ONLINE</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>23038122</t>
+          <t>FIBONLINE-MAGNASH-B</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>$4950.0</t>
+          <t>$102.0</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>JANIS JOPLIN FAIRIES TEE BLACK</t>
+          <t>ALANIS JONES BEACH CROP BLACK</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>INV-10736</t>
+          <t>INV-13128</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3219,36 +3075,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
+      <c r="C76" s="2" t="n">
+        <v>45769</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>SHAMBLES BOUTIQUE</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>23038100</t>
+          <t>SHAMBLES-3.13-B</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>$5175.0</t>
+          <t>$140.0</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>ELVIS KING OF ROCK TEE WHITE / MULTI</t>
+          <t>CASSETTE TAPE MUSCLE TANK COBALT BLUE</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>INV-10739</t>
+          <t>INV-13129</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3256,36 +3110,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>2023-07-10</t>
-        </is>
+      <c r="C77" s="2" t="n">
+        <v>45769</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>PINK CLUB</t>
+          <t>HERMOSA FASHION HOUSE</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5552 B</t>
+          <t>HERMOSAFASHION-3.16-B</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>$100.0</t>
+          <t>$240.0</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>WONDER WOMAN VINTAGE PULLOVER WHITE</t>
+          <t>CASSETTE TAPE MUSCLE TANK COBALT BLUE</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>INV-10753</t>
+          <t>INV-13141</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3293,36 +3145,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>2023-07-18</t>
-        </is>
+      <c r="C78" s="2" t="n">
+        <v>45769</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>THE CLOTHES RAK</t>
+          <t>BOMBSHELL BEAUTIES LLC</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>5671-D</t>
+          <t>BOMSHELLBT-MAGNASH-B</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>$200.0</t>
+          <t>$120.0</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>NY BUBBLE CROP BLACK</t>
+          <t>BOXING SHORT SMILEY BLACK</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>INV-10760</t>
+          <t>INV-13143</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3330,36 +3180,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>2023-07-24</t>
-        </is>
+      <c r="C79" s="2" t="n">
+        <v>45769</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>MANDI DAVIS</t>
+          <t>SALTBOX SHOP</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4245-B</t>
+          <t>SALTBOX-MAGNASH-C</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>$546.0</t>
+          <t>$96.0</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>SOLID DISTRESSED CROP OFF-WHITE, SOLID DISTRESSED CROP H.GREY TRIBLEND, MINERAL WASH MUSCLE GREY</t>
+          <t>BLONDIE COMIC BOYFRIEND CROP WHITE</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>INV-10774</t>
+          <t>INV-13144</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3367,36 +3215,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>2023-08-01</t>
-        </is>
+      <c r="C80" s="2" t="n">
+        <v>45770</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VICI COLLECTIONS, LLC</t>
+          <t>SEASON 7 BOUTIQUE</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>PO9452 B</t>
+          <t>SEASON7-DALMAR-RESHIP</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>$5040.0</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>COWBOYS AND COUNTRY MUSIC PULLOVER ASH GREY, COWBOYS AND COUNTRY MUSIC PULLOVER ASH GREY, COWBOYS AND COUNTRY MUSIC PULLOVER ASH GREY, COWBOYS AND COUNTRY MUSIC PULLOVER ASH GREY</t>
+          <t xml:space="preserve">FRESHLY SQUEEZED LEMONS TEE WHITE, JOAN JETT WINGS BOYFRIEND CROP LILAC, RESHIP FOR REPLACEMENTS-DAMAGES RETURNED 4.22 </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>INV-10786</t>
+          <t>INV-13148</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3404,36 +3250,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>2023-08-03</t>
-        </is>
+      <c r="C81" s="2" t="n">
+        <v>45770</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PEARL APPAREL</t>
+          <t>DOVE AND OLIVE BOUTIQUE</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>PA-8323 B</t>
+          <t>DOVEANDOLIVE-MAGNASH-B</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>$280.0</t>
+          <t>$224.0</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>STEVE MILLER HORSE MUSCLE MINERAL GREY, JANIS JOPLIN HEMISPHERE ARENA CROP WHITE</t>
+          <t>BLONDIE COMIC BOYFRIEND CROP WHITE, ELVIS SUN STUDIO UNISEX TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>INV-10791</t>
+          <t>INV-13149</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3441,36 +3285,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>2023-08-03</t>
-        </is>
+      <c r="C82" s="2" t="n">
+        <v>45771</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SOUTHERN ROOTS</t>
+          <t>MINT</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>SR-8323</t>
+          <t>NYLA-MINT-022</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>$430.0</t>
+          <t>$360.0</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>ELVIS KING OF ROCK TEE WHITE, ELVIS SUN RECORDS OVERSIZE TEE WHITE, ELVIS PORTRAIT OVERSIZE TEE WHITE</t>
+          <t>EAST COAST CROP WHT/NAVY</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>INV-10805</t>
+          <t>INV-13150</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3478,36 +3320,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>2023-08-03</t>
-        </is>
+      <c r="C83" s="2" t="n">
+        <v>45771</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SMITH &amp; DAVIS</t>
+          <t>MAMA TRIED BOUTIQUE(WY)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve">SD-8323-B			 			</t>
+          <t>MAMATRIED-MAGNASH-B</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>$140.0</t>
+          <t>$102.0</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>BE A NICE HUMAN OVERSIZE TEE WHITE</t>
+          <t>ALANIS JONES BEACH CROP BLACK</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>INV-10809</t>
+          <t>INV-13151</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3515,36 +3355,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>2023-08-03</t>
-        </is>
+      <c r="C84" s="2" t="n">
+        <v>45771</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>HONEY &amp; OAK BOUTIQUE</t>
+          <t>ENVY BOUTIQUE(CANADA)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">HON-8323			 			</t>
+          <t>ENVYBTQCA-MAGNASH-B</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>$360.0</t>
+          <t>$96.0</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ONE OF THE BOYS CROP OFF WHITE, JANIS FAIRIES OVERSIZED TEE BLACK, SONNY &amp; CHER CLEVELAND PUBLIC HALL TEE BLACK</t>
+          <t>ELVIS SUN STUDIO UNISEX TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>INV-10816</t>
+          <t>INV-13152</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3552,36 +3390,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>2023-09-15</t>
-        </is>
+      <c r="C85" s="2" t="n">
+        <v>45775</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SOCA</t>
+          <t>LULU'S</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve">SO-8423			 			</t>
+          <t>210505</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>$120.0</t>
+          <t>$2175.0</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>POISON CAT TEE BLK</t>
+          <t>JOSHUA TREE VINTAGE TEE IVORY, JOSHUA TREE VINTAGE TEE IVORY, JOSHUA TREE VINTAGE TEE IVORY, JOSHUA TREE VINTAGE TEE IVORY, JOSHUA TREE VINTAGE TEE IVORY</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>INV-10823</t>
+          <t>INV-13156</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3589,36 +3425,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>2023-08-04</t>
-        </is>
+      <c r="C86" s="2" t="n">
+        <v>45775</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>IRMA MARIE</t>
+          <t>THE ALLUV PLACE</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve">IM-8423			 			</t>
+          <t>ALLUVPLC-RESHIP CASSETTE TANKS</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>$168.0</t>
+          <t>$0.0</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>SKI ASPEN PULLOVER CROPPED MINERAL GREY</t>
+          <t xml:space="preserve">CASSETTE TAPE MUSCLE TANK OFF BLACK, &amp;&amp;RESHIP-THEY DID NOT RECEIVE THE TANKS ON THE FIRST ORDER, BUT WERE CHARGED FOR THEM </t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>INV-10841</t>
+          <t>INV-13157</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3626,36 +3460,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>2023-08-10</t>
-        </is>
+      <c r="C87" s="2" t="n">
+        <v>45776</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>CALLI'S CURATIONS</t>
+          <t>LULU'S</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve">CC-8423 B			 			</t>
+          <t>210607</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>$100.0</t>
+          <t>$7250.0</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>BE A NICE HUMAN OVERSIZE TEE WHITE</t>
+          <t>JOSHUA TREE VINTAGE TEE OFF BLACK, JOSHUA TREE VINTAGE TEE OFF BLACK, JOSHUA TREE VINTAGE TEE OFF BLACK, JOSHUA TREE VINTAGE TEE OFF BLACK, JOSHUA TREE VINTAGE TEE OFF BLACK</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>INV-10846</t>
+          <t>INV-13160</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3663,36 +3495,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>2023-08-14</t>
-        </is>
+      <c r="C88" s="2" t="n">
+        <v>45779</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>RUE LA LA</t>
+          <t>LILLY'S SPORTSWEAR</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1011996</t>
+          <t>VA33912</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>$277.2</t>
+          <t>$328.0</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>PRINCE PETER SHORT SLEEVE TRUE BLACK, PRINCE PETER SHORT SLEEVE JOSHUA OFF-WHITE, PRINCE PETER SHORT SLEEVE NEWPORT BLUE, PRINCE PETER SHORT SLEEVE HAMPTONS WHITE, PRINCE PETER ALL OVER STARS JOGGER WHITE, PRINCE PETER SHORT SLEEVE LA CIRCLE CROP TEE NAVY, PRINCE PETER SMILEY FACE PULLOVER BLACK, PRINCE PETER ALL OVER STARS PULLOVER WHITE, PRINCE PETER SHORT SLEEVE JIMI HENDNX MONTAGE TEE WHITE, PRINCE PETER SHORT SLEEVE MOTLEY WHITE, PRINCE PETER SHORT SLEEVE MALIBU WHITE, PRINCE PETER SHORT SLEEVE HOWDY WHITE, PRINCE PETER SHORT SLEEVE ROCK N BLACK, PRINCE PETER SHORT SLEEVE CITIES WHITE, PRINCE PETER SMILEY FACE JOGGER PANT BLACK, PRINCE PETER SHORT SLEEVE FEARLESS OFF-BLACK, PRINCE PETER SHORT SLEEVE WOODSTRACK POSTER CROP T BLACK, PRINCE PETER SHORT SLEEVE VHITNEY WHITE</t>
+          <t>BOWIE 74 BURNOUT CROP ELECTRIC BLUE, BLONDIE LIPS TEE WHITE, CHEAP TRICK ROSE CHECK TEE WHITE, JOAN JETT WINGS BOYFRIEND CROP TIE DYE BLUE MULTI</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>INV-10847</t>
+          <t>INV-13161</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3700,36 +3530,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>2023-08-14</t>
-        </is>
+      <c r="C89" s="2" t="n">
+        <v>45776</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RUE LA LA</t>
+          <t>LILLY'S SPORTSWEAR</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1011995</t>
+          <t>VA33915</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>$3997.4</t>
+          <t>$344.0</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>PRINCE PETER SHORT SLEEVE TRUE BLACK, PRINCE PETER SHORT SLEEVE TRUE BLACK, PRINCE PETER SHORT SLEEVE TRUE BLACK, PRINCE PETER SHORT SLEEVE TRUE BLACK, PRINCE PETER SHORT SLEEVE TRUE BLACK, PRINCE PETER SHORT SLEEVE JOSHUA OFF-WHITE, PRINCE PETER SHORT SLEEVE JOSHUA OFF-WHITE, PRINCE PETER SHORT SLEEVE JOSHUA OFF-WHITE, PRINCE PETER SHORT SLEEVE JOSHUA OFF-WHITE, PRINCE PETER SHORT SLEEVE JOSHUA OFF-WHITE, PRINCE PETER SHORT SLEEVE NEWPORT BLUE, PRINCE PETER SHORT SLEEVE NEWPORT BLUE, PRINCE PETER SHORT SLEEVE NEWPORT BLUE, PRINCE PETER SHORT SLEEVE NEWPORT BLUE, PRINCE PETER SHORT SLEEVE NEWPORT BLUE, PRINCE PETER SHORT SLEEVE HAMPTONS WHITE, PRINCE PETER SHORT SLEEVE HAMPTONS WHITE, PRINCE PETER SHORT SLEEVE HAMPTONS WHITE, PRINCE PETER SHORT SLEEVE HAMPTONS WHITE, PRINCE PETER SHORT SLEEVE HAMPTONS WHITE, PRINCE PETER ALL OVER STARS JOGGER WHITE, PRINCE PETER ALL OVER STARS JOGGER WHITE, PRINCE PETER ALL OVER STARS JOGGER WHITE, PRINCE PETER ALL OVER STARS JOGGER WHITE, PRINCE PETER SHORT SLEEVE LA CIRCLE CROP TEE NAVY, PRINCE PETER SHORT SLEEVE LA CIRCLE CROP TEE NAVY, PRINCE PETER SHORT SLEEVE LA CIRCLE CROP TEE NAVY, PRINCE PETER SHORT SLEEVE LA CIRCLE CROP TEE NAVY, PRINCE PETER SHORT SLEEVE LA CIRCLE CROP TEE NAVY, PRINCE PETER SMILEY FACE PULLOVER BLACK, PRINCE PETER SMILEY FACE PULLOVER BLACK, PRINCE PETER SMILEY FACE PULLOVER BLACK, PRINCE PETER SMILEY FACE PULLOVER BLACK, PRINCE PETER ALL OVER STARS PULLOVER WHITE, PRINCE PETER ALL OVER STARS PULLOVER WHITE, PRINCE PETER ALL OVER STARS PULLOVER WHITE, PRINCE PETER SHORT SLEEVE JIMI HENDNX MONTAGE TEE WHITE, PRINCE PETER SHORT SLEEVE JIMI HENDNX MONTAGE TEE WHITE, PRINCE PETER SHORT SLEEVE JIMI HENDNX MONTAGE TEE WHITE, PRINCE PETER SHORT SLEEVE JIMI HENDNX MONTAGE TEE WHITE, PRINCE PETER SHORT SLEEVE JIMI HENDNX MONTAGE TEE WHITE, PRINCE PETER SHORT SLEEVE MOTLEY WHITE, PRINCE PETER SHORT SLEEVE MOTLEY WHITE, PRINCE PETER SHORT SLEEVE MOTLEY WHITE, PRINCE PETER SHORT SLEEVE MOTLEY WHITE, PRINCE PETER SHORT SLEEVE MALIBU WHITE, PRINCE PETER SHORT SLEEVE MALIBU WHITE, PRINCE PETER SHORT SLEEVE MALIBU WHITE, PRINCE PETER SHORT SLEEVE MALIBU WHITE, PRINCE PETER SHORT SLEEVE HOWDY WHITE, PRINCE PETER SHORT SLEEVE HOWDY WHITE, PRINCE PETER SHORT SLEEVE HOWDY WHITE, PRINCE PETER SHORT SLEEVE HOWDY WHITE, PRINCE PETER SHORT SLEEVE HOWDY WHITE, PRINCE PETER SHORT SLEEVE ROCK N BLACK, PRINCE PETER SHORT SLEEVE ROCK N BLACK, PRINCE PETER SHORT SLEEVE ROCK N BLACK, PRINCE PETER SHORT SLEEVE ROCK N BLACK, PRINCE PETER SHORT SLEEVE CITIES WHITE, PRINCE PETER SHORT SLEEVE CITIES WHITE, PRINCE PETER SHORT SLEEVE CITIES WHITE, PRINCE PETER SHORT SLEEVE CITIES WHITE, PRINCE PETER SHORT SLEEVE CITIES WHITE, PRINCE PETER SMILEY FACE JOGGER PANT BLACK, PRINCE PETER SHORT SLEEVE FEARLESS OFF-BLACK, PRINCE PETER SHORT SLEEVE FEARLESS OFF-BLACK, PRINCE PETER SHORT SLEEVE FEARLESS OFF-BLACK, PRINCE PETER SHORT SLEEVE FEARLESS OFF-BLACK, PRINCE PETER SHORT SLEEVE FEARLESS OFF-BLACK, PRINCE PETER SHORT SLEEVE WOODSTRACK POSTER CROP T BLACK, PRINCE PETER SHORT SLEEVE WOODSTRACK POSTER CROP T BLACK, PRINCE PETER SHORT SLEEVE WOODSTRACK POSTER CROP T BLACK, PRINCE PETER SHORT SLEEVE WOODSTRACK POSTER CROP T BLACK, PRINCE PETER SHORT SLEEVE VHITNEY WHITE, PRINCE PETER SHORT SLEEVE VHITNEY WHITE, PRINCE PETER SHORT SLEEVE VHITNEY WHITE, PRINCE PETER SHORT SLEEVE VHITNEY WHITE, PRINCE PETER SHORT SLEEVE VHITNEY WHITE</t>
+          <t>HAMPTONS VARSITY SAIL CROP OFF WHITE, JIMI HENDRIX SOLO GUITAR OVERSIZED TEE MINERAL WASH BLACK, LUCKY CHARM HORSESHOE BURNOUT TEE GREY, AMALFI COAST PULLOVER CROPPED LIGHT PINK</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>INV-10851</t>
+          <t>INV-13163</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3737,36 +3565,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>2023-08-10</t>
-        </is>
+      <c r="C90" s="2" t="n">
+        <v>45776</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Saffron</t>
+          <t>HAPPY LIL THING</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAF-81023-B			 			</t>
+          <t>HAPPYLILTHNG-COTERFEB-B</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>$156.0</t>
+          <t>$528.0</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>CASSETTE TAPE PULLOVER CROP BLACK</t>
+          <t>HAMPTONS STAMPS BOYFRIEND CROP WHITE, OUTERBANKS LOBSTER CROP WHITE</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>INV-10886</t>
+          <t>INV-13165</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3774,36 +3600,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>2023-08-11</t>
-        </is>
+      <c r="C91" s="2" t="n">
+        <v>45777</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SIMPLY STELLA ROSE</t>
+          <t>COPPEL</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>5744-B</t>
+          <t>SAMPLE-HKG</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>$104.0</t>
+          <t>$10.0</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>CASSETTE TAPE PULLOVER CROP BLACK</t>
+          <t xml:space="preserve">BRAND: PRINCE PETER COLLECTION </t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>INV-10902</t>
+          <t>INV-13168</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3811,36 +3635,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>2023-08-11</t>
-        </is>
+      <c r="C92" s="2" t="n">
+        <v>45778</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>APRICOT LANE ROGERS</t>
+          <t>LULU'S</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALRG-811-B			 			</t>
+          <t>210760</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>$156.0</t>
+          <t>$6088.5</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>TULUM PULLOVER WHITE</t>
+          <t>CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK, CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK, CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK, CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK, CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>INV-10907</t>
+          <t>INV-13169</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3848,36 +3670,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>2023-08-11</t>
-        </is>
+      <c r="C93" s="2" t="n">
+        <v>45778</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>THE HIP EAGLE</t>
+          <t>LEGENDS GIFTS</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve">HE-811-C			 			</t>
+          <t>0-107910</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>$360.0</t>
+          <t>$2320.0</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>FEARLESS TOUR CROP BLACK, OBSESSESED CROP GREY, NY LIPS CROP BLACK</t>
+          <t>TIE DYE BLUE NASH LOGO CROP BLUE/NAVY, TIE DYE BLUE NASH LOGO CROP BLUE/NAVY, TIE DYE BLUE NASH LOGO CROP BLUE/NAVY, TIE DYE BLUE NASH LOGO CROP BLUE/NAVY, TIE DYE BLUE NASH LOGO CROP BLUE/NAVY</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>INV-10908</t>
+          <t>INV-13170</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3885,36 +3705,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>2023-08-11</t>
-        </is>
+      <c r="C94" s="2" t="n">
+        <v>45783</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>I BOUTIQUE</t>
+          <t>LEGENDS GIFTS</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>IB-811-B</t>
+          <t>0-107909</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>$216.0</t>
+          <t>$2304.0</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>CASSETTE TAPE PULLOVER BLACK, PARK CITY PULLOVER CROPPED MINERAL RED</t>
+          <t>NASH WHISKY SALOON TEE BLACK, NASH WHISKY SALOON TEE BLACK, NASH WHISKY SALOON TEE BLACK, NASH WHISKY SALOON TEE BLACK, NASH WHISKY SALOON TEE BLACK</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>INV-10915</t>
+          <t>INV-13172</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3922,36 +3740,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>2023-08-11</t>
-        </is>
+      <c r="C95" s="2" t="n">
+        <v>45778</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>RED SQUARE</t>
+          <t>ENVY BOUTIQUE(CANADA)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>5749-B</t>
+          <t>ENVYBTQCA-MAGNASH</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>$768.0</t>
+          <t>$170.0</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>WHITNEY STARS OVERSIZED TEE BLACK, STEVE MILLER BAND BOXES TEE NAVY, ALANIS IRONIC TEE WHITE, HENDRIX SOLO GUITAR OVERSIZED W/ HOLES TEE BLACK, POISON CAT TEE WITH HOLES BLACK, FRIENDS ATTRIBUTE TEE WHITE</t>
+          <t>WHITNEY MOTO OVERSIZE TEE WHITE, ESPRESSO MARTINI TEE WHITE, CASSETTE TAPE MUSCLE TANK OFF BLACK, NASHVILLE WHISKY SALOON BURNOUT TEE BLACK BURNOUT, ALANIS LIVE LEARN OVERSIZED TEE WHITE, CRANBERRIES ARGUE TEE WHITE</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>INV-10919</t>
+          <t>INV-13174</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3959,36 +3775,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>2023-08-11</t>
-        </is>
+      <c r="C96" s="2" t="n">
+        <v>45779</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>RED SQUARE</t>
+          <t>LILLY'S SPORTSWEAR</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve">5747-C			 			</t>
+          <t>VA33912 B</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>$492.0</t>
+          <t>$104.0</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>ALANIS JONES BEACH TEE BLACK, POISON CAT TEE WITH HOLES BLACK, BOB DYLAN FOREST HILLS TEE BLK, FRIENDS ATTRIBUTES UNISEX TEE WHITE</t>
+          <t>BEVERLY HILLS TIGER PULLOVER CROPPED MINT</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>INV-10921</t>
+          <t>INV-13175</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3996,36 +3810,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>2023-08-12</t>
-        </is>
+      <c r="C97" s="2" t="n">
+        <v>45782</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>RED SQUARE</t>
+          <t>TILLY'S</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve">5747-B			 			</t>
+          <t>1190017B</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>$564.0</t>
+          <t>$480.0</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>JANIS FAIRIES UNISEX TEE BLACK, WHITNEY STARS OVERSIZED TEE BLACK, STEVE MILLER BAND BOXES TEE NAVY, ALANIS IRONIC TEE WHITE, JIMI HENDRIX MONTAGE TEE WHITE</t>
+          <t>PRINCE PETER G SS 1989 ERA TEE LT BLUE/GRAY</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>INV-10922</t>
+          <t>INV-13176</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4033,36 +3845,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>2023-08-12</t>
-        </is>
+      <c r="C98" s="2" t="n">
+        <v>45793</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>DYLAN STAR</t>
+          <t>TILLY'S</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>5721-C</t>
+          <t>1189980B</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>$120.0</t>
+          <t>$480.0</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>LA TIGER CROP BLACK</t>
+          <t>PETER PRINCE G SS HWDY SMLEY T CREAM</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>INV-10923</t>
+          <t>INV-13177</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4070,36 +3880,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>2023-08-12</t>
-        </is>
+      <c r="C99" s="2" t="n">
+        <v>45782</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>DYLAN STAR</t>
+          <t>TILLY'S</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve">5721-B			 			</t>
+          <t>1189977B</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>$360.0</t>
+          <t>$480.0</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>TOM PETTY WESTERN OVERSIZED TEE NATURAL, JIMI HENDRIX MONTAGE CROP WHITE, BOWIE 74' CROP GREY</t>
+          <t>PRINCE PETER G SS CWGRL CLB TE LT BLUE/GRAY</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>INV-10924</t>
+          <t>INV-13178</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -4107,36 +3915,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>2023-08-12</t>
-        </is>
+      <c r="C100" s="2" t="n">
+        <v>45782</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>DYLAN STAR</t>
+          <t>LULU'S</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>5721</t>
+          <t>210959</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>$442.0</t>
+          <t>$3750.0</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>WHITNEY STARS OVERSIZED TEE BLACK, APERTIVO PULLOVER WHITE, ELVIS KING OF ROCK TEE WHITE</t>
+          <t>BLONDIE CIRCLE BAND CROP WHITE, BLONDIE CIRCLE BAND CROP WHITE, BLONDIE CIRCLE BAND CROP WHITE, BLONDIE CIRCLE BAND CROP WHITE, BLONDIE CIRCLE BAND CROP WHITE</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>INV-10931</t>
+          <t>INV-13179</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -4144,36 +3950,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>2023-08-14</t>
-        </is>
+      <c r="C101" s="2" t="n">
+        <v>45782</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>SHAMBLES BOUTIQUE</t>
+          <t>ROLLING RACK BOUTIQUE</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SHAMB-814-B</t>
+          <t>ROLLINGRACK-FALL SHORTS</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>$80.0</t>
+          <t>$3240.0</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>JANIS JOPLIN PEACE LOVE MUSCLE GREY MINERAL WASH</t>
+          <t>BOXING SHORT BOW CHOCOLATE, BOXING SHORT CHERRY BURGANDY, BOXING SHORT HEART HEATHER GREY, BOXING SHORT SMILEY BLACK, BOXING SHORT PEACE SIGN GREEN</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>INV-10945</t>
+          <t>INV-13180</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4181,36 +3985,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>2023-08-15</t>
-        </is>
+      <c r="C102" s="2" t="n">
+        <v>45782</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>DESERT NEST CO.</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>23048232</t>
+          <t>DESERT NEST-5.5.25</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>$4500.0</t>
+          <t>$324.0</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>WEST VILLAGE TENNIS CROP WHITE / MULTI</t>
+          <t>JOSHUA TREE TEE OFF BLACK</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>INV-10946</t>
+          <t>INV-13182</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -4218,36 +4020,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>2023-08-15</t>
-        </is>
+      <c r="C103" s="2" t="n">
+        <v>45783</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>TRENDS BY J&amp;M</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>23048233</t>
+          <t>NYLA-TRNDSJM-023</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>$4950.0</t>
+          <t>$288.0</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>ELVIS PRESLEY - ELVIS MONTAGE T-SHIRT BLACK / MULTI</t>
+          <t>EAST COAST CROP WHITE/NAVY TEXT, JERSEY SHORE SURF CLUB CROP BLACK</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>INV-10947</t>
+          <t>INV-13187</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -4255,36 +4055,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>2023-08-15</t>
-        </is>
+      <c r="C104" s="2" t="n">
+        <v>45785</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>SEVERED WING</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>23048272</t>
+          <t>NYLA-SEVRDWNG-024</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>$6975.0</t>
+          <t>$342.0</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>LOS ANGELES PULLOVER CHARCOAL</t>
+          <t>EAST COAST CROP WHT/NAVY PRINT, JERSEY SHORE SURF CLUB CROP BLACK</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>INV-10948</t>
+          <t>INV-13188</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -4292,36 +4090,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>2023-08-15</t>
-        </is>
+      <c r="C105" s="2" t="n">
+        <v>45785</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>LULU'S</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>23048286</t>
+          <t>208941</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>$7200.0</t>
+          <t>$8788.5</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>TULUM PULLOVER WHITE / MULTI</t>
+          <t>CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK, CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK, CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK, CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK, CASSETTE TAPE MUSCLE CROP WASHED BLACK/BLACK</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>INV-10949</t>
+          <t>INV-13189</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -4329,36 +4125,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>2023-08-15</t>
-        </is>
+      <c r="C106" s="2" t="n">
+        <v>45786</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>F21 OPCO, LLC</t>
+          <t>DENNY'S CHILDRENSWEAR</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>23048307</t>
+          <t>54384</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>$6975.0</t>
+          <t>$12974.4</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>LONDON PULLOVER WHITE/MULTI</t>
+          <t>BOXING SHORT SOLID BLACK BLACK, BOXING SHORT SOLID HEATHER GREY HEATHER GREY, BOXING SHORT SOLID BROWN BROWN, BOXING SHORT SOLID GREEN GREEN, BOXING SHORT SOLID BURGANDY BURNGANDY</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>INV-10951</t>
+          <t>INV-13190</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -4366,36 +4160,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>2023-08-15</t>
-        </is>
+      <c r="C107" s="2" t="n">
+        <v>45789</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>STOOPHER &amp; BOOTS</t>
+          <t>RUE LA LA</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>SB-810 B</t>
+          <t>1051775</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>$132.0</t>
+          <t>$99.5</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>EAST COAST CROP BLACK</t>
+          <t>PRINCE PETER COLLECTION WEEZER TOO LOUD TEE WHITE, PRINCE PETER COLLECTION BLONDIE WHITE, PRINCE PETER COLLECTION WEEZER YELLOW, PRINCE PETER COLLECTION TOM PETTY CIRCLE BAND MUSC MINERAL BLACK, PRINCE PETER COLLECTION TINA BLACK, PRINCE PETER COLLECTION TOM PETTY BUS TOUR BURNOUT VINTAGE YELLOW</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>INV-10953</t>
+          <t>INV-13198</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -4403,36 +4195,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>2023-08-15</t>
-        </is>
+      <c r="C108" s="2" t="n">
+        <v>45797</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>APRICOT LANE ROGERS</t>
+          <t>LEGENDS GIFTS</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALRG-811 B			 			</t>
+          <t>0-108102</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>$156.0</t>
+          <t>$4608.0</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>BEVERLY HILLS TENNIS CLUB PULLOVER WHITE</t>
+          <t>TEE BLK NASHVILLE ZIP CODE BLACK, TEE BLK NASHVILLE ZIP CODE BLACK, TEE BLK NASHVILLE ZIP CODE BLACK, TEE BLK NASHVILLE ZIP CODE BLACK, TEE S BURG. NASHVILLE ZIP CODE BURGUNDY, TEE S BURG. NASHVILLE ZIP CODE BURGUNDY, TEE S BURG. NASHVILLE ZIP CODE BURGUNDY, TEE S BURG. NASHVILLE ZIP CODE BURGUNDY</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>INV-10954</t>
+          <t>INV-13199</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -4440,36 +4230,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>2023-08-15</t>
-        </is>
+      <c r="C109" s="2" t="n">
+        <v>45791</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>BLUSH AND VYNE</t>
+          <t>LEGENDS GIFTS</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve">BV-81023 B			 			</t>
+          <t>0-108103</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>$328.0</t>
+          <t>$2304.0</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>SKI ASPEN PULLOVER CROPPED MINERAL GREY, MOTLEY CRUE OVERSIZED TEE NO HOLES BLACK</t>
+          <t>CROP BLK MINERAL WASH NASH MINERAL WASH, CROP BLK MINERAL WASH NASH MINERAL WASH, CROP BLK MINERAL WASH NASH MINERAL WASH, CROP BLK MINERAL WASH NASH MINERAL WASH, CROP BLK MINERAL WASH NASH MINERAL WASH</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>INV-10955</t>
+          <t>INV-13200</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -4477,36 +4265,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>2023-08-15</t>
-        </is>
+      <c r="C110" s="2" t="n">
+        <v>45791</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Everyday Chic Boutique LLC</t>
+          <t>LEGENDS GIFTS</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve">EC-81023 B			 			</t>
+          <t>0-108104</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>$480.0</t>
+          <t>$4608.0</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>MOTLEY CRUE HOME SWWE HOME WITH HOLES BLACK</t>
+          <t>TANK BLK NASH CASSETTE TAPE BLACK, TANK BLK NASH CASSETTE TAPE BLACK, TANK BLK NASH CASSETTE TAPE BLACK, TANK BLK NASH CASSETTE TAPE BLACK, TANK BLK NASH CASSETTE TAPE BLACK, TANK WHITE NASH CASSETTE TAPE WHITE, TANK WHITE NASH CASSETTE TAPE WHITE, TANK WHITE NASH CASSETTE TAPE WHITE, TANK WHITE NASH CASSETTE TAPE WHITE, TANK WHITE NASH CASSETTE TAPE WHITE</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>INV-10956</t>
+          <t>INV-13201</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -4514,36 +4300,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>2023-08-15</t>
-        </is>
+      <c r="C111" s="2" t="n">
+        <v>45796</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>APRICOT LANE SIOUX FALLS</t>
+          <t>LULU'S</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>4701 B</t>
+          <t>211493</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>$120.0</t>
+          <t>$4500.0</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>JOSHUA TREE TEE OFF-WHITE</t>
+          <t>BLONDIE CIRCLE BAND CROP WHITE, BLONDIE CIRCLE BAND CROP WHITE, BLONDIE CIRCLE BAND CROP WHITE, BLONDIE CIRCLE BAND CROP WHITE, BLONDIE CIRCLE BAND CROP WHITE</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>INV-10961</t>
+          <t>INV-13209</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -4551,36 +4335,34 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
+      <c r="C112" s="2" t="n">
+        <v>45796</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ASTER + AMETHYST</t>
+          <t>INFINITY NEW CITY</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>5739 B</t>
+          <t>NYLA-INFINITYNC-025-B</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>$80.0</t>
+          <t>$168.0</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>ROCK N' ROLL CROP BLACK</t>
+          <t>JERSEY SHORE STAMPS BOYFRIEND CROP WHITE</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>INV-10962</t>
+          <t>INV-13213</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -4588,2360 +4370,27 @@
           <t>Draft</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
+      <c r="C113" s="2" t="n">
+        <v>45798</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>COVERED UPTOWN</t>
+          <t>LULU'S</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve">COV-811-PROMO-B		 			</t>
+          <t>211830</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>$96.0</t>
+          <t>$8100.0</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>BOWIE CHEETAH TEE BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>INV-10963</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>JATEM</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>JAT-81023 B</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>$196.0</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>ASPEN SKI CLUB PULLOVER MINERAL NAVY</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>INV-10967</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>LAURIE BELLES BOUTIQUE</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>4708 B</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>$1440.0</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>STEVE MILLER HORSE MUSCLE TANK GREY</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>INV-10989</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>TWISTED OAK</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">TO-82423-B			 			</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>$360.0</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>BOB DYLAN FOREST HILLS TEE BLK, CHEAP TRICK WANT ME UNISEX TEE WHITE, JANIS JOPLIN FAIRY TEE BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>INV-11000</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>HONEY P'S</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HP-81723 RESHIP			 			</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>$0.0</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>HAMPTONS HOUSE PULLOVER WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>INV-11010</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>EAST WEST GIRL</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EWG-824 B			 			</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>$120.0</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>JOSHUA TREE TEE OFF-WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>INV-11011</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>NEW HOPE APPAREL CO</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">NHA-810-RESHIP	 			</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>$0.0</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>WOODSTOCK PEACE LOVE TEE WHITE, JOSHUA TREE TEE OFF-WHITE, BOWIE GUITAR TEE BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>INV-11014</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>I BOUTIQUE</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IB-811 B			 			</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>$160.0</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>ELVIS KING OF ROCK TEE WHITE, JOSHUA TREE TEE OFF-WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>INV-11017</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>RED SQUARE</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5746-PROMO B			 			</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>$64.0</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>MIMOSOS TEE WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>INV-11018</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>RED SQUARE</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5748-PROMO B			 			</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>$80.0</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>COOL MOM FITTED TEE WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>INV-11021</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>2023-09-15</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>GREENWICH RETAIL GROUP</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>EVRAFT-8.30</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>$660.0</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>NEW YORK BROADWAY PRINCE ST CROP HEATHER GREY TRIBLEND, LOS ANGELES 1989 CROP NEON PINK, LONDON SPORT AND WELLNESS PULLOVER WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>INV-11024</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>GIBBONS COMPANY</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>660739</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>$822.0</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>CIAO TEE WHITE, BONJOUR BABY WHITE, LONDON SPORT AND WELLNESS PULLOVER WHITE, NYC BLOCK TEE WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>INV-11025</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>F21 OPCO, LLC</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>23048295</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>$7719.0</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>PARIS PULLOVER NAVY</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>INV-11026</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>2023-08-31</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>F21 OPCO, LLC</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>23048303</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>$6975.0</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>BROOKLYN PULLOVER CHARCOAL/MULTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>INV-11032</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>LULU'S</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>175355</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>$6129.5</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>CASSETTE TAPE PULLOVER CROP BLACK, CASSETTE TAPE PULLOVER CROP BLACK, CASSETTE TAPE PULLOVER CROP BLACK, CASSETTE TAPE PULLOVER CROP BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>INV-11033</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>LULU'S</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>175356</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>$6279.0</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>JOSHUA TREE CROPPED PULLOVER ASH GREY, JOSHUA TREE CROPPED PULLOVER ASH GREY, JOSHUA TREE CROPPED PULLOVER ASH GREY, JOSHUA TREE CROPPED PULLOVER ASH GREY</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>INV-11036</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>2023-09-08</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>LISA'S BOUTIQUE</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>LB-9723</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>$450.0</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>STAR SMILEY PULLOVER KIDS HEATHER GREY, NOPE CROP PULLOVER KIDS WHITE, HAPPY FACE SPRAY PULLOVER KIDS BLACK, NEW YORK LANDMARK CROPPED PULLOVER KIDS H. GREY</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>INV-11043</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>RUE LA LA</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>1015311</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>$4760.4</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>PRINCE PETER VINTAGE ASPAN SKI 89 MINERAL LT GREY, PRINCE PETER VINTAGE ASPAN SKI 89 MINERAL LT GREY, PRINCE PETER VINTAGE ASPAN SKI MINERAL DK GREY, PRINCE PETER VINTAGE ASPAN SKI MINERAL DK GREY, PRINCE PETER VINTAGE ASPAN SKI MINERAL DK GREY, PRINCE PETER VINTAGE ASPAN SKI MINERAL DK GREY, PRINCE PETER VINTAGE ASPAN SKI MINERAL DK GREY, PRINCE PETER APERTIVO PULLOVER WHITE, PRINCE PETER APERTIVO PULLOVER WHITE, PRINCE PETER APERTIVO PULLOVER WHITE, PRINCE PETER APERTIVO PULLOVER WHITE, PRINCE PETER LONG LIVE CHEETAH PULLOVER BLK, PRINCE PETER LONG LIVE CHEETAH PULLOVER BLK, PRINCE PETER LONG LIVE CHEETAH PULLOVER BLK, PRINCE PETER MICHIOGAN 1837 PULLOVER BLUE, PRINCE PETER MICHIOGAN 1837 PULLOVER BLUE, PRINCE PETER MICHIOGAN 1837 PULLOVER BLUE, PRINCE PETER MICHIOGAN 1837 PULLOVER BLUE, PRINCE PETER ASPEN 86 PULLOVER BLACK, PRINCE PETER ASPEN 86 PULLOVER BLACK, PRINCE PETER ASPEN 86 PULLOVER BLACK, PRINCE PETER ASPEN 86 PULLOVER BLACK, PRINCE PETER GOLD COAST VENICE H.GREY, PRINCE PETER GOLD COAST VENICE H.GREY, PRINCE PETER GOLD COAST VENICE H.GREY, PRINCE PETER GOLD COAST VENICE H.GREY, PRINCE PETER NYC BLOCK PULLOVER BLACK, PRINCE PETER NYC BLOCK PULLOVER BLACK, PRINCE PETER NYC BLOCK PULLOVER BLACK, PRINCE PETER NYC BLOCK PULLOVER BLACK, PRINCE PETER BROOKLUN TIGER ATHLETIC PLVR BLACK, PRINCE PETER BROOKLUN TIGER ATHLETIC PLVR BLACK, PRINCE PETER BROOKLUN TIGER ATHLETIC PLVR BLACK, PRINCE PETER THE POLICE NY TOUR WHITE, PRINCE PETER THE POLICE NY TOUR WHITE, PRINCE PETER HARTEN GIRL BOXING PINK, PRINCE PETER HARTEN GIRL BOXING PINK, PRINCE PETER HARTEN GIRL BOXING PINK, PRINCE PETER HARTEN GIRL BOXING PINK, PRINCE PETER STRIKE SNAKE BOLT TEE L/S TEE RED, PRINCE PETER STRIKE SNAKE BOLT TEE L/S TEE RED, PRINCE PETER STRIKE SNAKE BOLT TEE L/S TEE RED, PRINCE PETER STRIKE SNAKE BOLT TEE L/S TEE RED, PRINCE PETER STRIKE SNAKE BOLT TEE L/S TEE RED, PRINCE PETER HAMPTONS HOUSE PULLOVER WHITE, PRINCE PETER HAMPTONS HOUSE PULLOVER WHITE, PRINCE PETER HAMPTONS HOUSE PULLOVER WHITE, PRINCE PETER HAMPTONS HOUSE PULLOVER WHITE, PRINCE PETER COWBOYS &amp; COUNTRY MUSIC PULLOVER HEATHER GREY, PRINCE PETER COWBOYS &amp; COUNTRY MUSIC PULLOVER HEATHER GREY, PRINCE PETER COWBOYS &amp; COUNTRY MUSIC PULLOVER HEATHER GREY, PRINCE PETER COWBOYS &amp; COUNTRY MUSIC PULLOVER HEATHER GREY, PRINCE PETER NAMVLIE MUSIC CITY PULLOVER NATURAL, PRINCE PETER NAMVLIE MUSIC CITY PULLOVER NATURAL, PRINCE PETER NAMVLIE MUSIC CITY PULLOVER NATURAL, PRINCE PETER NAMVLIE MUSIC CITY PULLOVER NATURAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>INV-11044</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>2023-09-19</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>RUE LA LA</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>1015312</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>$279.0</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>PRINCE PETER VINTAGE ASPAN SKI 89 MINERAL LT GREY, PRINCE PETER VINTAGE ASPAN SKI MINERAL DK GREY, PRINCE PETER APERTIVO PULLOVER WHITE, PRINCE PETER LONG LIVE CHEETAH PULLOVER BLK, PRINCE PETER MICHIOGAN 1837 PULLOVER BLUE, PRINCE PETER ASPEN 86 PULLOVER BLACK, PRINCE PETER GOLD COAST VENICE H.GREY, PRINCE PETER NYC BLOCK PULLOVER BLACK, PRINCE PETER BROOKLUN TIGER ATHLETIC PLVR BLACK, PRINCE PETER THE POLICE NY TOUR WHITE, PRINCE PETER HARTEN GIRL BOXING PINK, PRINCE PETER STRIKE SNAKE BOLT TEE L/S TEE RED, PRINCE PETER HAMPTONS HOUSE PULLOVER WHITE, PRINCE PETER COWBOYS &amp; COUNTRY MUSIC PULLOVER HEATHER GREY, PRINCE PETER NAMVLIE MUSIC CITY PULLOVER NATURAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>INV-11045</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>RUE LA LA</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>1015310</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>$1589.5</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>PRINCE PETER TULUM PULLOVER WHITE, PRINCE PETER TULUM PULLOVER WHITE, PRINCE PETER TULUM PULLOVER WHITE, PRINCE PETER TULUM PULLOVER WHITE, PRINCE PETER LONDON SPORT CLUB PULLOVER WHITE, PRINCE PETER LONDON SPORT CLUB PULLOVER WHITE, PRINCE PETER LONDON SPORT CLUB PULLOVER WHITE, PRINCE PETER LONDON SPORT CLUB PULLOVER WHITE, PRINCE PETER BROOKLYN VARSITY PULLOVER CHARCOAL, PRINCE PETER BROOKLYN VARSITY PULLOVER CHARCOAL, PRINCE PETER BROOKLYN VARSITY PULLOVER CHARCOAL, PRINCE PETER BROOKLYN VARSITY PULLOVER CHARCOAL, PRINCE PETER PARIS VARSITY PULOVER NAVY, PRINCE PETER PARIS VARSITY PULOVER NAVY, PRINCE PETER PARIS VARSITY PULOVER NAVY, PRINCE PETER PARIS VARSITY PULOVER NAVY, PRINCE PETER LOS ANGFL.ES VARSITY PULIOVER CHARCOAL, PRINCE PETER LOS ANGFL.ES VARSITY PULIOVER CHARCOAL, PRINCE PETER LOS ANGFL.ES VARSITY PULIOVER CHARCOAL, PRINCE PETER LOS ANGFL.ES VARSITY PULIOVER CHARCOAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>INV-11046</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>RUE LA LA</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>1015313</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>$93.5</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>PRINCE PETER TULUM PULLOVER WHITE, PRINCE PETER LONDON SPORT CLUB PULLOVER WHITE, PRINCE PETER BROOKLYN VARSITY PULLOVER CHARCOAL, PRINCE PETER PARIS VARSITY PULOVER NAVY, PRINCE PETER LOS ANGFL.ES VARSITY PULIOVER CHARCOAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>INV-11047</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>2023-09-12</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>SLOANE STREET INC.</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>ST-BARB912</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>$294.0</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>MALIBU BARB CROP PINK, FABULOUS BARB PULLOVER PINK</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>INV-11051</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>WILDFLOWER REPUTATION</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>4718 B</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>$80.0</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>JANIS JOPLIN PEACE LOVE MUSCLE MINERAL GREY</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>INV-11052</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>2023-09-13</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>FIGGY STUDIO &amp; SHOP</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FS-8423 C		 			</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>$160.0</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>JANIS JOPLIN HEMISPHERE ARENA CROP WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>INV-11060</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>GARAGE SALE VINTAGE</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5652-C			 			</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>$224.0</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>JANIS JOPLIN PEACE LOVE MUSCLE MINERAL GREY</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>INV-11061</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>2023-09-22</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>DYLAN STAR</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5721-D			 			</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>$132.0</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>ALANIS JONES BEACH TEE BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>INV-11063</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>DEVAL BOUTIQUE</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DEV-924			 			</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>$612.0</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>BOWIE GUITAR TEE BLACK, BLONDIE STARS TEE BLACK, WOODSTOCK SUMMER OF LOVE TEE WHITE, BOB DYLAN ROLLING STONE TEE WHITE, FREEDOM FESTIVAL CROP BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>INV-11068</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>2023-09-24</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>PRINCESS CIEL GROUP, INC</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PC-92423-B			 			</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>$296.0</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>CASSETTE TAPE PULLOVER BLACK, RICK SPRINGFIELD CASSETTE CROP NATURAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>INV-11072</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>2023-09-24</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>WOODSTOCK DESIGN</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t xml:space="preserve">WD-92423-B			 			</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>$416.0</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>CASSETTE TAPE PULLOVER BLACK, RICK SPRINGFIELD CASSETTE CROP IVORY, ROCK N' ROLL CROP: BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>INV-11074</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>2023-09-24</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GLAMEUR</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GLAM-924-PROMO			 			</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>$64.0</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>BROOKLYN FOREST HILLS CROP BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>INV-11076</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>2023-09-24</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>HTB BOUTIQUE</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HTB-92423-B			 			</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>$312.0</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>EAST COAST CROP BLACK, BROOKLYN VARSITY PULLOVER CROP CHARCOAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>INV-11079</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>2023-09-24</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>MY KIDS KORNER</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MKK-924-B			 			</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>$140.0</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>CASSETTE TAPE PULLOVER BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>INV-11080</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>2023-09-24</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>SEVERED WING</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SEV-924			 			</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>$300.0</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>STRIKE WHILE ITS HOT BLACK, CASSETTE TAPE PULLOVER BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>INV-11086</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>2023-09-24</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>LEMON CHIC-LEMON CHIC INTERNATIONAL</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LC-COTERIE-B			 			</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>$672.0</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>HAPPINESS CROP BLUE, CASSETTE TAPE MUSCLE OFF-WHITE, TOM PETTY LOGO CROP WHITE, BLONDIE STARS TEE BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>INV-11088</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>ON BLOOM</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ONBL-924			 			</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>$550.0</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>NASHVILLE MUSIC CITY PULLOVER NATURAL, COWBOYS AND COUNTRY MUSIC PULLOVER ASH GREY, BEVERLY HILLS LOGO CROP BLACK, ONE OF THE BOYS CROP OFF WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>INV-11089</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>2023-09-24</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>ON BLOOM</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ONBL-924-B			 			</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>$636.0</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>LET'S DANCE CROP BLK, NEW YORK BLOCK PULLOVER BLACK, LONDON WELLNESS PULLOVER WHITE, CALIFORNIA TENNIS CROPPED PULLOVER WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>INV-11090</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>ON BLOOM</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ONBL-924-C			 			</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>$600.0</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>NYC BLOCK TEE WHITE, APERTIVO PULLOVER WHITE, VERMONT PULLOVER PINK, JACKSON HOLE CROP BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>INV-11091</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>ON BLOOM</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ONBL-924-D			 			</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>$408.0</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>BEVERLY HILLS TENNIS CROP WHITE, WHITNEY STARS OVERSIZED TEE BLACK, CALI 89 CROP PINK</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>INV-11093</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>2023-09-26</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>B CHIC</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BC-92423			 			</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>$220.0</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>NYC LANDMARKS CROP GREY, NY LIPS CROP BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>INV-11100</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>SHOP</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SHOP-924-B			 			</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>$420.0</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>PARIS PULLOVER NAVY, CASSETTE TAPE PULLOVER BLACK, CASSETTE TAPE PULLOVER CROP BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>INV-11102</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>VALENTINA</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VW-92423-B			 			</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>$270.0</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>LONDON WELLNESS PULLOVER GREY, TULUM PULLOVER WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>INV-11106</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>CHLOE'S BOUTIQUE</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CB-92423-B			 			</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>$140.0</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>CASSETTE TAPE PULLOVER CROP BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>INV-11110</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>KLOSET KOUTURE</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t xml:space="preserve">KK-92423-B			 			</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>$120.0</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>JANIS JOPLIN PEACE LOVE MUSCLE MINERAL GREY</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>INV-11114</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>APRICOT LANE HUNTERSVILLE</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ALH-925-B			 			</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>$372.0</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>BOB DYLAN ROLLING STONES UNISEX TEE WHITE, ELVIS PORTRAIT UNISEX TEE NATURAL, BIKE WEEK CROP OFF-BLK</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>INV-11115</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>APRICOT LANE HUNTERSVILLE</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ALH-925-C			 			</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>$444.0</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>LONDON PULLOVER WHITE, NASHVILLE MUSIC CITY PULLOVER NATURAL, ELVIS KING OF ROCK UNISEX TEE WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>INV-11116</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>DIXIE DUDS AND DECOR</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DD-92423			 			</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>$414.0</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>ELVIS KING OF ROCK UNISEX TEE WHITE, ELVIS SUN STUDIO TEE WHITE, MOTLEY CRUE HOME SWEET HOME TEE UNISEX W HOLES BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>INV-11117</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>2023-09-29</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>HAVANA JEANS</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HAV-92423			 			</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>$1320.0</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>BLONDIE STARS TEE BLACK, BROOKLYN OLD ENGLISH CROP NAVY, LA RODEO DRIVE CROP RED, CALI 89 CROP PINK, RICK SPRINGFIELD 81 TOUR TEE OFF-WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>INV-11121</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>THREADS</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>THR-92523</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>$576.0</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>NYC LANDMARKS CROP GREY, EAST COAST CROP BLACK, CITIES CROP WHITE, RICK SPRINGFIELD 81 TOUR TEE OFF-WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>INV-11123</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>APRICOT LANE - N. MYRTLE BEACH</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ALMB-812 C			 			</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>$120.0</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>NEON SMILEY STARS CROP WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>INV-11125</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>2023-10-03</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>SAM MANUEL CASINO</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>PO07194</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>$572.0</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>LDS ASH GREY BOB DYLAN ROLLING STONE 1966 OVERSIZED PULLOVER GREY, LDS BLACK JANIS JOPLIN FAIRIES TEE BLACK, LDS BLACK KINDNESS IS MAGIC TEE BLACK, LDS WHITE STEVE MILLER BOXES TEE WHITE, UNISEX OFF BLACK ELVIS IN CONCERT CREW TEE OFF-BLK, WOMENS CHEAP TRICK WHITE WANT YOU TO WANT ME TEE WHITE, WOMENS TOM PETTY OFF WHITE 1991 TOUR TEE OFF-WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>INV-11126</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>BLEU CLOTHING</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t xml:space="preserve">BC-92523			 			</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>$360.0</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>TOM PETTY WAY OUT WEST UNISEX TEE NATURAL, CHEAP TRICK WANT ME UNISEX CROP WHITE, BLONDIE STARS CROP BLACK, ROCK N' ROLL GUITAR CROP BLK</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>INV-11127</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>CARUSO CARUSO</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CAR-925			 			</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>$1030.0</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>BOB DYLAN ROLLING STONE CROP WHITE, CHEAP TRICK WANT ME CROP WHITE, ALANIS JONES BEACH CROP BLACK, TOM PETTY LOGO CROP WHITE, NY LIPS CROP BLACK, VERMONT PULLOVER PINK</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>INV-11129</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>ERICA LOGAN LLC</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EL-92523			 			</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>$2076.0</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>RICK SPRINGFIELD CASSETTE CROP OFF-WHITE, ELVIS KING OF ROCK UNISEX TEE WHITE, BOWIE 74' MINERAL GREY CROP MINERAL GREY, HERE FOR THE GOOD TIMES BLACK, BOB DYLAN 66 UNISEX TEE WHITE, BOWIE FACES CROP OFF WHITE, BLONDIE CAMP FUNTIME TIE DYE CROP MULTI, MOTLEY CRUE TIE DYE CROP MULTI, APERTIVO PULLOVER CROP WHITE, NY BEACHES CROP BLUE, JOSHUA TREE TEE OFF-WHITE, EAST COAST CROP BLACK, BEVERLY HILLS AIRBRUSH CROP WHITE, SUNSET DREAM FESTIVAL CROP OFF WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>INV-11131</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>FLIP DISTRIBUTION GmbH</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLIP-92523			 			</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>$2188.2</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>ALANIS JONES BEACH TEE OFF-BLACK, JANIS JOPLIN FAIRY TEE OFF BLACK, BOWIE GUITAR TEE BLACK, ALANIS IRONIC TEE WHITE, ELVIS KING OF ROCK UNISEX TEE WHITE, RICK SPRINGFIELD 81 TOUR TEE OFF-WHITE, HENDRIX ARE YOU EXPERIENCED UNISEX TEE WHITE, SANTANA GUITAR TEE BLACK, SANTANA DRAGON TEE BLACK, TOM PETTY WAY OUT WEST TOUR TEE WHITE, JANIS FLOWER OVERSIZED TEE OFF-WHITE, HENDRIX PERFORMANCE TEE BLACK, SANTANA IN CONCERT TEE BLACK, BOWIE STARS PORTRAIT OVERSIZED TEE BLACK, ROCK N' ROLL GUITAR CROP BLK, FEARLESS TOUR CROP BLACK, BLONDIE STARS TEE BLACK, TOM PETTY 1991 TOUR TEE OFF-WHITE, HENDRIX SOLO GUITAR OVERSIZED W/ HOLES TEE BLACK, CHEAP TRICK WANT ME TEE WHITE, WOODSTOCK SUMMER OF LOVE TEE WHITE, BOB DYLAN FOREST HILLS TEE BLK</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>INV-11132</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>2023-09-26</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>DREAMS BOUTIQUE</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DB-82523-RESHIP		 			</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>$0.0</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>ELVIS PORTRAIT UNISEX TEE NATURAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>INV-11135</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>STORM</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>14068</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>$2160.0</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>73560knt - Free Your Soul Tee BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>INV-11139</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>THREADS</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>THR-92523 B</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>$324.0</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>NYC BLOCK TEE WHITE, BROOKLYN PULLOVER CROP CHARCOAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>INV-11140</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>REAR ENDS</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t xml:space="preserve">RE-92523 B		 			</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>$120.0</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>ALANIS JONES BEACH CROP BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>INV-11141</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>SOMETHING ABOUT SOFIA</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t xml:space="preserve">SAS-925 B			 			</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>$252.0</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>BEVERLY HILLS TENNIS CLUB PULLOVER WHITE, CASSETTE TAPE PULLOVER BLACK</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>INV-11142</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>2023-09-28</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>HAVANA JEANS</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HAV-92423 B		 			</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>$280.0</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>NYC BLOCK CROP WHT</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>INV-11144</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>2023-09-29</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>DENNY'S CHILDRENSWEAR</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>48431-B</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>$15646.8</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>MALIBU BARB CROP PINK, CALI LA PHYS ED CROP BLACK, CITY OF LOVE PARIS CROP BLACK, NEW YORK BLUR CROP WHITE, CALIFORINA CA PULLOVER HEATHER GREY, FABULOUS BARB PULLOVER PINK, CALIFORNIA SANTA MONICA PULLOVER CROPPED WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>INV-11146</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>DREAMS BOUTIQUE</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DB-82523-C			</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>$276.0</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>ASPEN 1986 PULLOVER BLACK, RICK SPRINGFIELD CASSETTE CROP IVORY</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>INV-11152</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>2023-10-03</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>CAMILLE'S BOUTIQUE</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>4706 C</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>$120.0</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>BLONDIE CIRCLE LOGO CROP WHITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>INV-11153</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>2023-10-03</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>BITTERSWEET IVY</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>5742-C</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>$140.0</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>MOTLEY CRUE TIE DYE CROP MULTI</t>
+          <t>CASSETTE TAPE MUSCLE CROP BLACK, CASSETTE TAPE MUSCLE CROP BLACK, CASSETTE TAPE MUSCLE CROP BLACK, CASSETTE TAPE MUSCLE CROP BLACK, CASSETTE TAPE MUSCLE CROP BLACK</t>
         </is>
       </c>
     </row>
